--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="03_Definition" sheetId="5" r:id="rId3"/>
     <sheet name="04_Check Conditional_Monadic" sheetId="6" r:id="rId4"/>
     <sheet name="05_Check Conditional" sheetId="3" r:id="rId5"/>
+    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$39</definedName>
@@ -23,7 +27,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Conditional_Monadic'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Conditional'!$1:$4</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
+    <definedName name="ああ" localSheetId="5">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="105">
   <si>
     <t>NgayDangKy</t>
   </si>
@@ -328,6 +334,33 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>Ｎｏ</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>DAO</t>
+  </si>
+  <si>
+    <t>BLO</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hội viên</t>
+  </si>
+  <si>
+    <t>SearchMember.cs</t>
+  </si>
+  <si>
+    <t>Student,Provide_Dai_Dan,Dai_Dan DbConnect.cs</t>
+  </si>
+  <si>
+    <t>SearchCondition.xaml</t>
   </si>
 </sst>
 </file>
@@ -415,7 +448,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +477,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -848,6 +887,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -858,7 +1003,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1111,9 +1256,128 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,125 +1390,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1269,6 +1414,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4007,6 +4195,706 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2455333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>663787</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 199"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9177866" cy="663787"/>
+          <a:chOff x="0" y="2"/>
+          <a:chExt cx="1121" cy="52"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect b="32468"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="2"/>
+            <a:ext cx="1121" cy="52"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 201"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="287" y="10"/>
+            <a:ext cx="274" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen item definition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 202"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="565" y="11"/>
+            <a:ext cx="155" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 203"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="727" y="9"/>
+            <a:ext cx="384" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 204"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="163" y="10"/>
+            <a:ext cx="122" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 205"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="566" y="34"/>
+            <a:ext cx="155" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Screen ID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 206"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="161" y="34"/>
+            <a:ext cx="394" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Conditional</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 207"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="725" y="33"/>
+            <a:ext cx="393" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD004</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 208"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4" y="11"/>
+            <a:ext cx="154" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 209"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3" y="34"/>
+            <a:ext cx="154" cy="19"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>screen name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="01_Screen Layout"/>
+      <sheetName val="02_Item Definition"/>
+      <sheetName val="03_Definition"/>
+      <sheetName val="04_check Condition Monadic"/>
+      <sheetName val="05_Check Condition"/>
+      <sheetName val="06_Mapping Class, Action"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5114,469 +6002,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86" t="s">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87" t="s">
+      <c r="G1" s="123"/>
+      <c r="H1" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="89"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="102" t="s">
+      <c r="G2" s="125"/>
+      <c r="H2" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="106" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="44">
         <v>1</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="46"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="46"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="46"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="14" spans="1:12" ht="13.35">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
     </row>
     <row r="17" spans="1:12" ht="40.85" customHeight="1">
       <c r="A17" s="44">
         <v>1</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="1:12" ht="42.7" customHeight="1">
       <c r="A18" s="44">
         <v>2</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123" t="s">
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
     </row>
     <row r="19" spans="1:12" ht="12.85" customHeight="1">
       <c r="A19" s="43">
         <v>3</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126" t="s">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="42"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="41"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="41"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1">
       <c r="A23" s="41"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
     </row>
     <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A24" s="41"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
     </row>
     <row r="26" spans="1:12" ht="11.35" customHeight="1"/>
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
     <row r="54" spans="1:11" ht="20.7">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
     </row>
     <row r="57" spans="1:11" ht="13.35">
-      <c r="A57" s="114"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
     </row>
     <row r="58" spans="1:11" ht="13.35">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="114"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="114"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="98"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="98"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="98"/>
-      <c r="J61" s="98"/>
-      <c r="K61" s="98"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="98"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="98"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="98"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="98"/>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
@@ -5593,16 +6466,31 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:L11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:L24"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5619,7 +6507,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -6596,4 +7484,321 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35"/>
+  <cols>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="11" max="24" width="8.88671875" style="154"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
+      <c r="A1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
+      <c r="A3" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="148" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="149" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="150">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+    </row>
+    <row r="15" spans="1:24" s="154" customFormat="1">
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+    </row>
+    <row r="16" spans="1:24" s="154" customFormat="1">
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+    </row>
+    <row r="17" s="154" customFormat="1"/>
+    <row r="18" s="154" customFormat="1"/>
+    <row r="19" s="154" customFormat="1"/>
+    <row r="20" s="154" customFormat="1"/>
+    <row r="21" s="154" customFormat="1"/>
+    <row r="22" s="154" customFormat="1"/>
+    <row r="23" s="154" customFormat="1"/>
+    <row r="24" s="154" customFormat="1"/>
+    <row r="25" s="154" customFormat="1"/>
+    <row r="26" s="154" customFormat="1"/>
+    <row r="27" s="154" customFormat="1"/>
+    <row r="28" s="154" customFormat="1"/>
+    <row r="29" s="154" customFormat="1"/>
+    <row r="30" s="154" customFormat="1"/>
+    <row r="31" s="154" customFormat="1"/>
+    <row r="32" s="154" customFormat="1"/>
+    <row r="33" s="154" customFormat="1"/>
+    <row r="34" s="154" customFormat="1"/>
+    <row r="35" s="154" customFormat="1"/>
+    <row r="36" s="154" customFormat="1"/>
+    <row r="37" s="154" customFormat="1"/>
+    <row r="38" s="154" customFormat="1"/>
+    <row r="39" s="154" customFormat="1"/>
+    <row r="40" s="154" customFormat="1"/>
+    <row r="41" s="154" customFormat="1"/>
+    <row r="42" s="154" customFormat="1"/>
+    <row r="43" s="154" customFormat="1"/>
+    <row r="44" s="154" customFormat="1"/>
+    <row r="45" s="154" customFormat="1"/>
+    <row r="46" s="154" customFormat="1"/>
+    <row r="47" s="154" customFormat="1"/>
+    <row r="48" s="154" customFormat="1"/>
+    <row r="49" s="154" customFormat="1"/>
+    <row r="50" s="154" customFormat="1"/>
+    <row r="51" s="154" customFormat="1"/>
+    <row r="52" s="154" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -7,26 +7,30 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
-    <sheet name="02_Item definition" sheetId="4" r:id="rId2"/>
-    <sheet name="03_Definition" sheetId="5" r:id="rId3"/>
-    <sheet name="04_Check Conditional_Monadic" sheetId="6" r:id="rId4"/>
-    <sheet name="05_Check Conditional" sheetId="3" r:id="rId5"/>
-    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
+    <sheet name="Message" sheetId="9" r:id="rId1"/>
+    <sheet name="01_Screen Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="02_Item definition" sheetId="4" r:id="rId3"/>
+    <sheet name="03_Definition" sheetId="5" r:id="rId4"/>
+    <sheet name="04_Check Conditional_Monadic" sheetId="6" r:id="rId5"/>
+    <sheet name="05_Check Conditional" sheetId="3" r:id="rId6"/>
+    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$L$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Conditional_Monadic'!$A$1:$P$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Conditional'!$A$1:$I$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Conditional_Monadic'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Conditional'!$1:$4</definedName>
-    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'01_Screen Layout'!$A$1:$P$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'02_Item definition'!$A$1:$N$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'03_Definition'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'04_Check Conditional_Monadic'!$A$1:$P$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Message!$A$1:$D$165</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'01_Screen Layout'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'02_Item definition'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'04_Check Conditional_Monadic'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'05_Check Conditional'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Message!$1:$3</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="6">#REF!</definedName>
+    <definedName name="YAJI_MT_登録仕訳" localSheetId="0">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
-    <definedName name="ああ" localSheetId="5">#REF!</definedName>
+    <definedName name="ああ" localSheetId="6">#REF!</definedName>
+    <definedName name="ああ" localSheetId="0">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,24 +42,369 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+is required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+is required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cau thong bao cho truong co format Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate kieu so khong dau
+            9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate so thap phan co dau +, - 
+             0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate alpha-numeric, +, -
+               X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate alpha-numeric, +, -
+               X</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize 2 byte, bao gom tieng Nhat
+           N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize 2 byte, bao gom tieng Nhat
+           N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize katakana
+             K</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Validate ky tu fullsize katakana
+             K</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
   <si>
     <t>NgayDangKy</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Parameters:
-- {0}: NgaySinh
-- {1}: NgayDangKy</t>
-  </si>
-  <si>
-    <t>dialog</t>
-  </si>
-  <si>
-    <t>NgaySinh phải nhỏ hơn NgayDangKy</t>
   </si>
   <si>
     <t>NgaySinh</t>
@@ -420,13 +769,119 @@
   </si>
   <si>
     <t>- Khi admin click vào buttton Xuất File, hệ thống xuất file Word bao gồm danh sách hội viên được tìm kiếm và thông tin số mã vạch, đăng ký,  họ tên, quốc tịch, địa chỉ số điện thoại, hình, ngày đăng ký, ngày sinh, nơi sinh, lớp đăng ký và các đai đẳn đạt được</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>{0} and {1} are not consistent</t>
+  </si>
+  <si>
+    <t>{0} or {1} invalid</t>
+  </si>
+  <si>
+    <t>Pass Point of { 1 } course is not consistent with {0} for {2} status.</t>
+  </si>
+  <si>
+    <t>{ 0 } is greater than { 1 } and less than { 2 }</t>
+  </si>
+  <si>
+    <t>{ 0 } は、全角カタカナで入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、全角で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角英数字で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角英数字、+ - . で入力してください。</t>
+  </si>
+  <si>
+    <t>{ 0 } は、半角数字で入力してください。</t>
+  </si>
+  <si>
+    <t>メールアドレス に使用することができない文字が使用されています。使用することができる文字（A～Z a～z @ . _ -）を使用してください。</t>
+  </si>
+  <si>
+    <t>That character cannnot used for email address. Please use character (A-Z a-z @._-)</t>
+  </si>
+  <si>
+    <t>{ 0 } が入力されていません。</t>
+  </si>
+  <si>
+    <t>{0} must be less than {1}</t>
+  </si>
+  <si>
+    <t>日本語メッセージ</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>AKD-MS001-E</t>
+  </si>
+  <si>
+    <t>AKD-MS002-E</t>
+  </si>
+  <si>
+    <t>AKD-MS003-E</t>
+  </si>
+  <si>
+    <t>AKD-MS004-E</t>
+  </si>
+  <si>
+    <t>Ngày Sinh phải nhỏ hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Ngày Đăng Ký lớn hơn hoặc bằng ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Không xuất được file word</t>
+  </si>
+  <si>
+    <t>{0}: xuất file bị lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} phải nhỏ hơn ngày hiện tại </t>
+  </si>
+  <si>
+    <t>{ 0 } phải lớn hơn hoặc bằng ngày hiện tại</t>
+  </si>
+  <si>
+    <t>{ 0 } lỗi xuất file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ 0 } không có dữ liệu cần tìm kiếm </t>
+  </si>
+  <si>
+    <t>Không có dữ liều cần tìm kiếm</t>
+  </si>
+  <si>
+    <t>{0}: tìm kiếm</t>
+  </si>
+  <si>
+    <t>{0}: ngày đăng ký</t>
+  </si>
+  <si>
+    <t>{0}: ngày sinh</t>
+  </si>
+  <si>
+    <t>* The message is displayed in the format of "AKD003".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +974,32 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1081,7 +1562,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1374,6 +1855,179 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1386,6 +2040,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1395,163 +2052,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1577,38 +2079,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1632,6 +2179,377 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 38"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620" y="167640"/>
+          <a:ext cx="4525617" cy="426720"/>
+          <a:chOff x="1" y="61"/>
+          <a:chExt cx="746" cy="28"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect t="68539"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1" y="61"/>
+            <a:ext cx="746" cy="28"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 25"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1" y="67"/>
+            <a:ext cx="119" cy="18"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Form number</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 26"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="127" y="66"/>
+            <a:ext cx="84" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>AKD</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 27"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="213" y="67"/>
+            <a:ext cx="162" cy="17"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>Message definition</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 28"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="375" y="68"/>
+            <a:ext cx="125" cy="16"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>system-name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 29"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="501" y="67"/>
+            <a:ext cx="242" cy="20"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Aidiko dojo's Member Management</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="900">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2348,7 +3266,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2995,7 +3913,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3721,7 +4639,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4323,7 +5241,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5262,11 +6180,1347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="177" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="177" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="177" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" style="177" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" style="176" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" style="176" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="176"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56.25" customHeight="1"/>
+    <row r="2" spans="1:5" s="188" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="189"/>
+      <c r="B2" s="190" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="187" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="187" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="187" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="186">
+        <v>1</v>
+      </c>
+      <c r="B4" s="186" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="180" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="180" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A5" s="186">
+        <v>2</v>
+      </c>
+      <c r="B5" s="181" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="180" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" hidden="1" customHeight="1">
+      <c r="A6" s="186">
+        <v>3</v>
+      </c>
+      <c r="B6" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="180" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="180" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="186">
+        <v>3</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="180" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A8" s="179">
+        <v>4</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="180" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="186"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="180" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A10" s="186"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A11" s="186"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A12" s="186"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A13" s="186"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A14" s="186"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A15" s="181"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" hidden="1" customHeight="1">
+      <c r="A16" s="181"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A17" s="181"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A18" s="181"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="180"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A19" s="181"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="180"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A20" s="181"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="180"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A21" s="181"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="180"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A22" s="181"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="180"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A23" s="181"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="180"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A24" s="181"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="180"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A27" s="181"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="180"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A28" s="181"/>
+      <c r="B28" s="181"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="180"/>
+    </row>
+    <row r="29" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A29" s="181"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="180"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A30" s="181"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="181"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="180"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A31" s="181"/>
+      <c r="B31" s="181"/>
+      <c r="C31" s="181"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="180"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A32" s="181"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="180"/>
+    </row>
+    <row r="33" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A33" s="181"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="180"/>
+    </row>
+    <row r="34" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A34" s="181"/>
+      <c r="B34" s="181"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="180"/>
+    </row>
+    <row r="35" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A35" s="181"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="180"/>
+    </row>
+    <row r="36" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A36" s="181"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="180"/>
+    </row>
+    <row r="37" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A37" s="181"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="180"/>
+    </row>
+    <row r="38" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A38" s="181"/>
+      <c r="B38" s="181"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="180"/>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A39" s="181"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="180"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
+      <c r="C40" s="181"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="180"/>
+    </row>
+    <row r="41" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A41" s="181"/>
+      <c r="B41" s="181"/>
+      <c r="C41" s="181"/>
+      <c r="D41" s="181"/>
+      <c r="E41" s="180"/>
+    </row>
+    <row r="42" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A42" s="181"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="180"/>
+    </row>
+    <row r="43" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A43" s="183"/>
+      <c r="B43" s="183"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="183"/>
+      <c r="E43" s="182"/>
+    </row>
+    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A44" s="181"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="180"/>
+    </row>
+    <row r="45" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A45" s="181"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="181"/>
+      <c r="E45" s="180"/>
+    </row>
+    <row r="46" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="180"/>
+    </row>
+    <row r="47" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="180"/>
+    </row>
+    <row r="48" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="181"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="180"/>
+    </row>
+    <row r="49" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A49" s="181"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="181"/>
+      <c r="D49" s="181"/>
+      <c r="E49" s="180"/>
+    </row>
+    <row r="50" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A50" s="181"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="180"/>
+    </row>
+    <row r="51" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A51" s="181"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="180"/>
+    </row>
+    <row r="52" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A52" s="181"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="181"/>
+      <c r="E52" s="180"/>
+    </row>
+    <row r="53" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A53" s="181"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="180"/>
+    </row>
+    <row r="54" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A54" s="181"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="180"/>
+    </row>
+    <row r="55" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A55" s="181"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="181"/>
+      <c r="D55" s="181"/>
+      <c r="E55" s="180"/>
+    </row>
+    <row r="56" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A56" s="181"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="181"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="180"/>
+    </row>
+    <row r="57" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A57" s="181"/>
+      <c r="B57" s="181"/>
+      <c r="C57" s="181"/>
+      <c r="D57" s="181"/>
+      <c r="E57" s="180"/>
+    </row>
+    <row r="58" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A58" s="181"/>
+      <c r="B58" s="181"/>
+      <c r="C58" s="181"/>
+      <c r="D58" s="181"/>
+      <c r="E58" s="180"/>
+    </row>
+    <row r="59" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A59" s="181"/>
+      <c r="B59" s="181"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="180"/>
+    </row>
+    <row r="60" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A60" s="181"/>
+      <c r="B60" s="181"/>
+      <c r="C60" s="181"/>
+      <c r="D60" s="181"/>
+      <c r="E60" s="180"/>
+    </row>
+    <row r="61" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A61" s="181"/>
+      <c r="B61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="181"/>
+      <c r="E61" s="180"/>
+    </row>
+    <row r="62" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A62" s="181"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="181"/>
+      <c r="E62" s="180"/>
+    </row>
+    <row r="63" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A63" s="181"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="181"/>
+      <c r="E63" s="180"/>
+    </row>
+    <row r="64" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A64" s="181"/>
+      <c r="B64" s="181"/>
+      <c r="C64" s="181"/>
+      <c r="D64" s="181"/>
+      <c r="E64" s="180"/>
+    </row>
+    <row r="65" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A65" s="181"/>
+      <c r="B65" s="181"/>
+      <c r="C65" s="181"/>
+      <c r="D65" s="181"/>
+      <c r="E65" s="180"/>
+    </row>
+    <row r="66" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A66" s="181"/>
+      <c r="B66" s="181"/>
+      <c r="C66" s="181"/>
+      <c r="D66" s="181"/>
+      <c r="E66" s="180"/>
+    </row>
+    <row r="67" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A67" s="181"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="181"/>
+      <c r="D67" s="181"/>
+      <c r="E67" s="180"/>
+    </row>
+    <row r="68" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A68" s="181"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="181"/>
+      <c r="D68" s="181"/>
+      <c r="E68" s="180"/>
+    </row>
+    <row r="69" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A69" s="181"/>
+      <c r="B69" s="181"/>
+      <c r="C69" s="181"/>
+      <c r="D69" s="181"/>
+      <c r="E69" s="180"/>
+    </row>
+    <row r="70" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A70" s="181"/>
+      <c r="B70" s="181"/>
+      <c r="C70" s="181"/>
+      <c r="D70" s="181"/>
+      <c r="E70" s="180"/>
+    </row>
+    <row r="71" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A71" s="181"/>
+      <c r="B71" s="181"/>
+      <c r="C71" s="181"/>
+      <c r="D71" s="181"/>
+      <c r="E71" s="180"/>
+    </row>
+    <row r="72" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A72" s="181"/>
+      <c r="B72" s="181"/>
+      <c r="C72" s="181"/>
+      <c r="D72" s="181"/>
+      <c r="E72" s="180"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A73" s="181"/>
+      <c r="B73" s="181"/>
+      <c r="C73" s="181"/>
+      <c r="D73" s="181"/>
+      <c r="E73" s="180"/>
+    </row>
+    <row r="74" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A74" s="181"/>
+      <c r="B74" s="181"/>
+      <c r="C74" s="181"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="180"/>
+    </row>
+    <row r="75" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A75" s="181"/>
+      <c r="B75" s="181"/>
+      <c r="C75" s="181"/>
+      <c r="D75" s="181"/>
+      <c r="E75" s="180"/>
+    </row>
+    <row r="76" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A76" s="181"/>
+      <c r="B76" s="181"/>
+      <c r="C76" s="181"/>
+      <c r="D76" s="181"/>
+      <c r="E76" s="180"/>
+    </row>
+    <row r="77" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A77" s="181"/>
+      <c r="B77" s="181"/>
+      <c r="C77" s="181"/>
+      <c r="D77" s="181"/>
+      <c r="E77" s="180"/>
+    </row>
+    <row r="78" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A78" s="181"/>
+      <c r="B78" s="181"/>
+      <c r="C78" s="181"/>
+      <c r="D78" s="181"/>
+      <c r="E78" s="180"/>
+    </row>
+    <row r="79" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A79" s="181"/>
+      <c r="B79" s="181"/>
+      <c r="C79" s="181"/>
+      <c r="D79" s="181"/>
+      <c r="E79" s="180"/>
+    </row>
+    <row r="80" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A80" s="181"/>
+      <c r="B80" s="181"/>
+      <c r="C80" s="181"/>
+      <c r="D80" s="181"/>
+      <c r="E80" s="180"/>
+    </row>
+    <row r="81" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A81" s="181"/>
+      <c r="B81" s="181"/>
+      <c r="C81" s="181"/>
+      <c r="D81" s="181"/>
+      <c r="E81" s="180"/>
+    </row>
+    <row r="82" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A82" s="181"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="180"/>
+    </row>
+    <row r="83" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A83" s="181"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="180"/>
+    </row>
+    <row r="84" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A84" s="181"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="180"/>
+    </row>
+    <row r="85" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A85" s="181"/>
+      <c r="B85" s="181"/>
+      <c r="C85" s="181"/>
+      <c r="D85" s="181"/>
+      <c r="E85" s="180"/>
+    </row>
+    <row r="86" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A86" s="181"/>
+      <c r="B86" s="181"/>
+      <c r="C86" s="181"/>
+      <c r="D86" s="181"/>
+      <c r="E86" s="180"/>
+    </row>
+    <row r="87" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A87" s="181"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="180"/>
+    </row>
+    <row r="88" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A88" s="181"/>
+      <c r="B88" s="181"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
+      <c r="E88" s="180"/>
+    </row>
+    <row r="89" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A89" s="181"/>
+      <c r="B89" s="181"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
+      <c r="E89" s="180"/>
+    </row>
+    <row r="90" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A90" s="181"/>
+      <c r="B90" s="181"/>
+      <c r="C90" s="181"/>
+      <c r="D90" s="181"/>
+      <c r="E90" s="180"/>
+    </row>
+    <row r="91" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A91" s="181"/>
+      <c r="B91" s="181"/>
+      <c r="C91" s="181"/>
+      <c r="D91" s="181"/>
+      <c r="E91" s="180"/>
+    </row>
+    <row r="92" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A92" s="181"/>
+      <c r="B92" s="181"/>
+      <c r="C92" s="181"/>
+      <c r="D92" s="181"/>
+      <c r="E92" s="180"/>
+    </row>
+    <row r="93" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A93" s="181"/>
+      <c r="B93" s="181"/>
+      <c r="C93" s="181"/>
+      <c r="D93" s="181"/>
+      <c r="E93" s="180"/>
+    </row>
+    <row r="94" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A94" s="181"/>
+      <c r="B94" s="181"/>
+      <c r="C94" s="181"/>
+      <c r="D94" s="181"/>
+      <c r="E94" s="180"/>
+    </row>
+    <row r="95" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A95" s="181"/>
+      <c r="B95" s="181"/>
+      <c r="C95" s="181"/>
+      <c r="D95" s="181"/>
+      <c r="E95" s="180"/>
+    </row>
+    <row r="96" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A96" s="181"/>
+      <c r="B96" s="181"/>
+      <c r="C96" s="181"/>
+      <c r="D96" s="181"/>
+      <c r="E96" s="180"/>
+    </row>
+    <row r="97" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A97" s="181"/>
+      <c r="B97" s="181"/>
+      <c r="C97" s="181"/>
+      <c r="D97" s="181"/>
+      <c r="E97" s="180"/>
+    </row>
+    <row r="98" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A98" s="181"/>
+      <c r="B98" s="181"/>
+      <c r="C98" s="181"/>
+      <c r="D98" s="181"/>
+      <c r="E98" s="180"/>
+    </row>
+    <row r="99" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A99" s="181"/>
+      <c r="B99" s="181"/>
+      <c r="C99" s="181"/>
+      <c r="D99" s="181"/>
+      <c r="E99" s="180"/>
+    </row>
+    <row r="100" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A100" s="181"/>
+      <c r="B100" s="181"/>
+      <c r="C100" s="181"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="180"/>
+    </row>
+    <row r="101" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A101" s="181"/>
+      <c r="B101" s="181"/>
+      <c r="C101" s="181"/>
+      <c r="D101" s="181"/>
+      <c r="E101" s="180"/>
+    </row>
+    <row r="102" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A102" s="181"/>
+      <c r="B102" s="181"/>
+      <c r="C102" s="181"/>
+      <c r="D102" s="181"/>
+      <c r="E102" s="180"/>
+    </row>
+    <row r="103" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A103" s="181"/>
+      <c r="B103" s="181"/>
+      <c r="C103" s="181"/>
+      <c r="D103" s="181"/>
+      <c r="E103" s="180"/>
+    </row>
+    <row r="104" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A104" s="181"/>
+      <c r="B104" s="181"/>
+      <c r="C104" s="181"/>
+      <c r="D104" s="181"/>
+      <c r="E104" s="180"/>
+    </row>
+    <row r="105" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A105" s="181"/>
+      <c r="B105" s="181"/>
+      <c r="C105" s="181"/>
+      <c r="D105" s="181"/>
+      <c r="E105" s="180"/>
+    </row>
+    <row r="106" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A106" s="181"/>
+      <c r="B106" s="181"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="180"/>
+    </row>
+    <row r="107" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A107" s="181"/>
+      <c r="B107" s="181"/>
+      <c r="C107" s="181"/>
+      <c r="D107" s="181"/>
+      <c r="E107" s="180"/>
+    </row>
+    <row r="108" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A108" s="181"/>
+      <c r="B108" s="181"/>
+      <c r="C108" s="181"/>
+      <c r="D108" s="181"/>
+      <c r="E108" s="180"/>
+    </row>
+    <row r="109" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A109" s="181"/>
+      <c r="B109" s="181"/>
+      <c r="C109" s="181"/>
+      <c r="D109" s="181"/>
+      <c r="E109" s="180"/>
+    </row>
+    <row r="110" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A110" s="181"/>
+      <c r="B110" s="181"/>
+      <c r="C110" s="181"/>
+      <c r="D110" s="181"/>
+      <c r="E110" s="180"/>
+    </row>
+    <row r="111" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A111" s="181"/>
+      <c r="B111" s="181"/>
+      <c r="C111" s="181"/>
+      <c r="D111" s="181"/>
+      <c r="E111" s="180"/>
+    </row>
+    <row r="112" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A112" s="181"/>
+      <c r="B112" s="181"/>
+      <c r="C112" s="181"/>
+      <c r="D112" s="181"/>
+      <c r="E112" s="180"/>
+    </row>
+    <row r="113" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A113" s="181"/>
+      <c r="B113" s="181"/>
+      <c r="C113" s="181"/>
+      <c r="D113" s="181"/>
+      <c r="E113" s="180"/>
+    </row>
+    <row r="114" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A114" s="181"/>
+      <c r="B114" s="181"/>
+      <c r="C114" s="181"/>
+      <c r="D114" s="181"/>
+      <c r="E114" s="180"/>
+    </row>
+    <row r="115" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A115" s="181"/>
+      <c r="B115" s="181"/>
+      <c r="C115" s="181"/>
+      <c r="D115" s="181"/>
+      <c r="E115" s="180"/>
+    </row>
+    <row r="116" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A116" s="181"/>
+      <c r="B116" s="181"/>
+      <c r="C116" s="181"/>
+      <c r="D116" s="181"/>
+      <c r="E116" s="180"/>
+    </row>
+    <row r="117" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A117" s="181"/>
+      <c r="B117" s="181"/>
+      <c r="C117" s="181"/>
+      <c r="D117" s="181"/>
+      <c r="E117" s="180"/>
+    </row>
+    <row r="118" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A118" s="181"/>
+      <c r="B118" s="181"/>
+      <c r="C118" s="181"/>
+      <c r="D118" s="181"/>
+      <c r="E118" s="180"/>
+    </row>
+    <row r="119" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A119" s="181"/>
+      <c r="B119" s="181"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="181"/>
+      <c r="E119" s="180"/>
+    </row>
+    <row r="120" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A120" s="181"/>
+      <c r="B120" s="181"/>
+      <c r="C120" s="181"/>
+      <c r="D120" s="181"/>
+      <c r="E120" s="180"/>
+    </row>
+    <row r="121" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A121" s="181"/>
+      <c r="B121" s="181"/>
+      <c r="C121" s="181"/>
+      <c r="D121" s="181"/>
+      <c r="E121" s="180"/>
+    </row>
+    <row r="122" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A122" s="181"/>
+      <c r="B122" s="181"/>
+      <c r="C122" s="181"/>
+      <c r="D122" s="181"/>
+      <c r="E122" s="180"/>
+    </row>
+    <row r="123" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A123" s="181"/>
+      <c r="B123" s="181"/>
+      <c r="C123" s="181"/>
+      <c r="D123" s="181"/>
+      <c r="E123" s="180"/>
+    </row>
+    <row r="124" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A124" s="181"/>
+      <c r="B124" s="181"/>
+      <c r="C124" s="181"/>
+      <c r="D124" s="181"/>
+      <c r="E124" s="180"/>
+    </row>
+    <row r="125" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A125" s="181"/>
+      <c r="B125" s="181"/>
+      <c r="C125" s="181"/>
+      <c r="D125" s="181"/>
+      <c r="E125" s="180"/>
+    </row>
+    <row r="126" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A126" s="181"/>
+      <c r="B126" s="181"/>
+      <c r="C126" s="181"/>
+      <c r="D126" s="181"/>
+      <c r="E126" s="180"/>
+    </row>
+    <row r="127" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A127" s="181"/>
+      <c r="B127" s="181"/>
+      <c r="C127" s="181"/>
+      <c r="D127" s="181"/>
+      <c r="E127" s="180"/>
+    </row>
+    <row r="128" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A128" s="181"/>
+      <c r="B128" s="181"/>
+      <c r="C128" s="181"/>
+      <c r="D128" s="181"/>
+      <c r="E128" s="180"/>
+    </row>
+    <row r="129" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A129" s="181"/>
+      <c r="B129" s="181"/>
+      <c r="C129" s="181"/>
+      <c r="D129" s="181"/>
+      <c r="E129" s="180"/>
+    </row>
+    <row r="130" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A130" s="181"/>
+      <c r="B130" s="181"/>
+      <c r="C130" s="181"/>
+      <c r="D130" s="181"/>
+      <c r="E130" s="180"/>
+    </row>
+    <row r="131" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A131" s="181"/>
+      <c r="B131" s="181"/>
+      <c r="C131" s="181"/>
+      <c r="D131" s="181"/>
+      <c r="E131" s="180"/>
+    </row>
+    <row r="132" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A132" s="181"/>
+      <c r="B132" s="181"/>
+      <c r="C132" s="181"/>
+      <c r="D132" s="181"/>
+      <c r="E132" s="180"/>
+    </row>
+    <row r="133" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A133" s="181"/>
+      <c r="B133" s="181"/>
+      <c r="C133" s="181"/>
+      <c r="D133" s="181"/>
+      <c r="E133" s="180"/>
+    </row>
+    <row r="134" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A134" s="181"/>
+      <c r="B134" s="181"/>
+      <c r="C134" s="181"/>
+      <c r="D134" s="181"/>
+      <c r="E134" s="180"/>
+    </row>
+    <row r="135" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A135" s="181"/>
+      <c r="B135" s="181"/>
+      <c r="C135" s="181"/>
+      <c r="D135" s="181"/>
+      <c r="E135" s="180"/>
+    </row>
+    <row r="136" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A136" s="181"/>
+      <c r="B136" s="181"/>
+      <c r="C136" s="181"/>
+      <c r="D136" s="181"/>
+      <c r="E136" s="180"/>
+    </row>
+    <row r="137" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A137" s="181"/>
+      <c r="B137" s="181"/>
+      <c r="C137" s="181"/>
+      <c r="D137" s="181"/>
+      <c r="E137" s="180"/>
+    </row>
+    <row r="138" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A138" s="181"/>
+      <c r="B138" s="181"/>
+      <c r="C138" s="181"/>
+      <c r="D138" s="181"/>
+      <c r="E138" s="180"/>
+    </row>
+    <row r="139" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A139" s="181"/>
+      <c r="B139" s="181"/>
+      <c r="C139" s="181"/>
+      <c r="D139" s="181"/>
+      <c r="E139" s="180"/>
+    </row>
+    <row r="140" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A140" s="181"/>
+      <c r="B140" s="181"/>
+      <c r="C140" s="181"/>
+      <c r="D140" s="181"/>
+      <c r="E140" s="180"/>
+    </row>
+    <row r="141" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A141" s="181">
+        <f>ROW()-3</f>
+        <v>138</v>
+      </c>
+      <c r="B141" s="181"/>
+      <c r="C141" s="181"/>
+      <c r="D141" s="181"/>
+      <c r="E141" s="180"/>
+    </row>
+    <row r="142" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A142" s="181">
+        <f>ROW()-3</f>
+        <v>139</v>
+      </c>
+      <c r="B142" s="181"/>
+      <c r="C142" s="181"/>
+      <c r="D142" s="181"/>
+      <c r="E142" s="180"/>
+    </row>
+    <row r="143" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A143" s="181">
+        <f>ROW()-3</f>
+        <v>140</v>
+      </c>
+      <c r="B143" s="181"/>
+      <c r="C143" s="181"/>
+      <c r="D143" s="181"/>
+      <c r="E143" s="180"/>
+    </row>
+    <row r="144" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A144" s="181">
+        <f>ROW()-3</f>
+        <v>141</v>
+      </c>
+      <c r="B144" s="181"/>
+      <c r="C144" s="181"/>
+      <c r="D144" s="181"/>
+      <c r="E144" s="180"/>
+    </row>
+    <row r="145" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A145" s="181">
+        <f>ROW()-3</f>
+        <v>142</v>
+      </c>
+      <c r="B145" s="181"/>
+      <c r="C145" s="181"/>
+      <c r="D145" s="181"/>
+      <c r="E145" s="180"/>
+    </row>
+    <row r="146" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A146" s="181">
+        <f>ROW()-3</f>
+        <v>143</v>
+      </c>
+      <c r="B146" s="181"/>
+      <c r="C146" s="181"/>
+      <c r="D146" s="181"/>
+      <c r="E146" s="180"/>
+    </row>
+    <row r="147" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A147" s="181">
+        <f>ROW()-3</f>
+        <v>144</v>
+      </c>
+      <c r="B147" s="181"/>
+      <c r="C147" s="181"/>
+      <c r="D147" s="181"/>
+      <c r="E147" s="180"/>
+    </row>
+    <row r="148" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A148" s="181">
+        <f>ROW()-3</f>
+        <v>145</v>
+      </c>
+      <c r="B148" s="181"/>
+      <c r="C148" s="181"/>
+      <c r="D148" s="181"/>
+      <c r="E148" s="180"/>
+    </row>
+    <row r="149" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A149" s="181">
+        <f>ROW()-3</f>
+        <v>146</v>
+      </c>
+      <c r="B149" s="181"/>
+      <c r="C149" s="181"/>
+      <c r="D149" s="181"/>
+      <c r="E149" s="180"/>
+    </row>
+    <row r="150" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A150" s="181">
+        <f>ROW()-3</f>
+        <v>147</v>
+      </c>
+      <c r="B150" s="181"/>
+      <c r="C150" s="181"/>
+      <c r="D150" s="181"/>
+      <c r="E150" s="180"/>
+    </row>
+    <row r="151" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A151" s="181">
+        <f>ROW()-3</f>
+        <v>148</v>
+      </c>
+      <c r="B151" s="181"/>
+      <c r="C151" s="181"/>
+      <c r="D151" s="181"/>
+      <c r="E151" s="180"/>
+    </row>
+    <row r="152" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A152" s="181">
+        <f>ROW()-3</f>
+        <v>149</v>
+      </c>
+      <c r="B152" s="181"/>
+      <c r="C152" s="181"/>
+      <c r="D152" s="181"/>
+      <c r="E152" s="180"/>
+    </row>
+    <row r="153" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A153" s="181">
+        <f>ROW()-3</f>
+        <v>150</v>
+      </c>
+      <c r="B153" s="181"/>
+      <c r="C153" s="181"/>
+      <c r="D153" s="181"/>
+      <c r="E153" s="180"/>
+    </row>
+    <row r="154" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A154" s="181">
+        <f>ROW()-3</f>
+        <v>151</v>
+      </c>
+      <c r="B154" s="181"/>
+      <c r="C154" s="181"/>
+      <c r="D154" s="181"/>
+      <c r="E154" s="180"/>
+    </row>
+    <row r="155" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A155" s="181">
+        <f>ROW()-3</f>
+        <v>152</v>
+      </c>
+      <c r="B155" s="181"/>
+      <c r="C155" s="181"/>
+      <c r="D155" s="181"/>
+      <c r="E155" s="180"/>
+    </row>
+    <row r="156" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A156" s="181">
+        <f>ROW()-3</f>
+        <v>153</v>
+      </c>
+      <c r="B156" s="181"/>
+      <c r="C156" s="181"/>
+      <c r="D156" s="181"/>
+      <c r="E156" s="180"/>
+    </row>
+    <row r="157" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A157" s="181">
+        <f>ROW()-3</f>
+        <v>154</v>
+      </c>
+      <c r="B157" s="181"/>
+      <c r="C157" s="181"/>
+      <c r="D157" s="181"/>
+      <c r="E157" s="180"/>
+    </row>
+    <row r="158" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A158" s="181">
+        <f>ROW()-3</f>
+        <v>155</v>
+      </c>
+      <c r="B158" s="181"/>
+      <c r="C158" s="181"/>
+      <c r="D158" s="181"/>
+      <c r="E158" s="180"/>
+    </row>
+    <row r="159" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A159" s="181">
+        <f>ROW()-3</f>
+        <v>156</v>
+      </c>
+      <c r="B159" s="181"/>
+      <c r="C159" s="181"/>
+      <c r="D159" s="181"/>
+      <c r="E159" s="180"/>
+    </row>
+    <row r="160" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A160" s="181">
+        <f>ROW()-3</f>
+        <v>157</v>
+      </c>
+      <c r="B160" s="181"/>
+      <c r="C160" s="181"/>
+      <c r="D160" s="181"/>
+      <c r="E160" s="180"/>
+    </row>
+    <row r="161" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A161" s="181">
+        <f>ROW()-3</f>
+        <v>158</v>
+      </c>
+      <c r="B161" s="181"/>
+      <c r="C161" s="181"/>
+      <c r="D161" s="181"/>
+      <c r="E161" s="180"/>
+    </row>
+    <row r="162" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A162" s="181">
+        <f>ROW()-3</f>
+        <v>159</v>
+      </c>
+      <c r="B162" s="181"/>
+      <c r="C162" s="181"/>
+      <c r="D162" s="181"/>
+      <c r="E162" s="180"/>
+    </row>
+    <row r="163" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A163" s="181">
+        <f>ROW()-3</f>
+        <v>160</v>
+      </c>
+      <c r="B163" s="181"/>
+      <c r="C163" s="181"/>
+      <c r="D163" s="181"/>
+      <c r="E163" s="180"/>
+    </row>
+    <row r="164" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A164" s="181">
+        <f>ROW()-3</f>
+        <v>161</v>
+      </c>
+      <c r="B164" s="181"/>
+      <c r="C164" s="181"/>
+      <c r="D164" s="181"/>
+      <c r="E164" s="180"/>
+    </row>
+    <row r="165" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A165" s="179">
+        <f>ROW()-3</f>
+        <v>162</v>
+      </c>
+      <c r="B165" s="179"/>
+      <c r="C165" s="179"/>
+      <c r="D165" s="179"/>
+      <c r="E165" s="178"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.21" top="0.38" bottom="0.34" header="0.38" footer="0.2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;F</oddHeader>
+    <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -5289,7 +7543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M39"/>
@@ -5330,43 +7584,43 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.399999999999999" customHeight="1">
@@ -5375,16 +7629,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" s="30">
         <v>20</v>
@@ -5393,22 +7647,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.4" customHeight="1">
@@ -5417,13 +7671,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="67">
         <v>9</v>
@@ -5435,22 +7689,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.2" customHeight="1">
@@ -5459,16 +7713,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" s="30">
         <v>50</v>
@@ -5477,37 +7731,37 @@
         <v>1</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="43.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21.6">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="67">
         <v>9</v>
@@ -5519,22 +7773,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1">
@@ -5543,13 +7797,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="99" t="s">
         <v>1</v>
@@ -5561,22 +7815,22 @@
         <v>1</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
@@ -5585,13 +7839,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="99" t="s">
         <v>1</v>
@@ -5603,22 +7857,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
@@ -5627,13 +7881,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="99" t="s">
         <v>1</v>
@@ -5645,22 +7899,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" s="30" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
@@ -5669,13 +7923,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="99" t="s">
         <v>1</v>
@@ -5687,22 +7941,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
@@ -5711,13 +7965,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="99" t="s">
         <v>1</v>
@@ -5729,22 +7983,22 @@
         <v>1</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
@@ -5753,13 +8007,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="99" t="s">
         <v>1</v>
@@ -5771,22 +8025,22 @@
         <v>1</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>1</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.8" customHeight="1">
@@ -5795,31 +8049,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E13" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I13" s="31" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>1</v>
@@ -5828,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="27.6" customHeight="1">
@@ -5837,31 +8091,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" s="79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>1</v>
@@ -5870,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
@@ -6076,7 +8330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L63"/>
@@ -6098,462 +8352,461 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="131"/>
+      <c r="A1" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="124"/>
       <c r="C1" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="138"/>
+      <c r="D1" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="124"/>
+      <c r="H1" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="133" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="123" t="s">
+      <c r="A2" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="131"/>
+      <c r="H2" s="140" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="142"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="129"/>
+      <c r="A3" s="133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="134" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="135"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
+      <c r="A6" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
+      <c r="A8" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="157">
+      <c r="A9" s="112">
         <v>1</v>
       </c>
-      <c r="B9" s="160" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="160" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="173"/>
+      <c r="B9" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="158"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="176"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
     </row>
     <row r="11" spans="1:12" ht="8.4" customHeight="1">
-      <c r="A11" s="158"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="176"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="159"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
     </row>
     <row r="13" spans="1:12">
       <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
+      <c r="A14" s="143" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+        <v>51</v>
+      </c>
+      <c r="B16" s="165" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
     </row>
     <row r="17" spans="1:12" ht="40.799999999999997" customHeight="1">
       <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="1:12" ht="42.75" customHeight="1">
       <c r="A18" s="41">
         <v>2</v>
       </c>
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="166" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="171" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
     </row>
     <row r="19" spans="1:12" ht="27" customHeight="1">
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="169" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
+      <c r="B19" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="160" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="39"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="38"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="38"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
     </row>
     <row r="23" spans="1:12" ht="27" customHeight="1">
       <c r="A23" s="38"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
     </row>
     <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1">
       <c r="A24" s="38"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
     </row>
     <row r="26" spans="1:12" ht="11.4" customHeight="1"/>
     <row r="27" spans="1:12" ht="15" customHeight="1"/>
     <row r="28" spans="1:12" ht="15" customHeight="1"/>
     <row r="54" spans="1:11" ht="21">
-      <c r="A54" s="116"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
+      <c r="A54" s="148"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="117"/>
-      <c r="B57" s="118"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="117"/>
-      <c r="B58" s="118"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="150"/>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="150"/>
+      <c r="K58" s="150"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="117"/>
+      <c r="A59" s="149"/>
+      <c r="B59" s="149"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="149"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="149"/>
+      <c r="G59" s="149"/>
+      <c r="H59" s="149"/>
+      <c r="I59" s="149"/>
+      <c r="J59" s="149"/>
+      <c r="K59" s="149"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="115"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="136"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="136"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="115"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="136"/>
+      <c r="K61" s="136"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="115"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
+      <c r="I62" s="136"/>
+      <c r="J62" s="136"/>
+      <c r="K62" s="136"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="115"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="115"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="136"/>
+      <c r="K63" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E9:L12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:L22"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A63:K63"/>
     <mergeCell ref="C3:L3"/>
@@ -6570,20 +8823,21 @@
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E9:L12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B9:D12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6596,7 +8850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P32"/>
@@ -6637,69 +8891,69 @@
       <c r="B2" s="18"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="149" t="s">
-        <v>110</v>
+      <c r="E2" s="107"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="105" t="s">
+        <v>107</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N2" s="53"/>
       <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:15" ht="100.8">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="64" customFormat="1" ht="22.5" customHeight="1">
@@ -6708,26 +8962,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
       <c r="H4" s="62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" s="62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L4" s="62">
         <v>20</v>
@@ -6736,10 +8990,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O4" s="62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="64" customFormat="1" ht="41.4" customHeight="1">
@@ -6747,39 +9001,39 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="152" t="s">
-        <v>92</v>
+      <c r="B5" s="108" t="s">
+        <v>89</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
       <c r="H5" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="69"/>
       <c r="J5" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N5" s="66" t="s">
         <v>0</v>
       </c>
       <c r="O5" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="64" customFormat="1" ht="27.75" customHeight="1">
@@ -6787,39 +9041,39 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="152" t="s">
-        <v>94</v>
+      <c r="B6" s="108" t="s">
+        <v>91</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="72"/>
       <c r="F6" s="67"/>
       <c r="G6" s="69"/>
       <c r="H6" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="67"/>
       <c r="J6" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L6" s="68">
         <v>50</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N6" s="66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O6" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="64" customFormat="1" ht="28.8">
@@ -6827,39 +9081,39 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="152" t="s">
-        <v>111</v>
+      <c r="B7" s="108" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="67"/>
       <c r="G7" s="69"/>
       <c r="H7" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="67"/>
       <c r="J7" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M7" s="73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N7" s="66" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="64" customFormat="1" ht="19.5" customHeight="1">
@@ -6868,38 +9122,38 @@
         <v>5</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="152" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="67"/>
       <c r="G8" s="69"/>
       <c r="H8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" s="67"/>
       <c r="J8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O8" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="64" customFormat="1">
@@ -6907,39 +9161,39 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="153" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="153" t="s">
-        <v>28</v>
+      <c r="B9" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="67"/>
       <c r="G9" s="69"/>
       <c r="H9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="64" customFormat="1">
@@ -6947,39 +9201,39 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="153" t="s">
-        <v>99</v>
+      <c r="B10" s="109" t="s">
+        <v>96</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="67"/>
       <c r="G10" s="69"/>
       <c r="H10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I10" s="67"/>
       <c r="J10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O10" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="64" customFormat="1" ht="18" customHeight="1">
@@ -6987,39 +9241,39 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="153" t="s">
-        <v>101</v>
+      <c r="B11" s="109" t="s">
+        <v>98</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="72"/>
       <c r="F11" s="67"/>
       <c r="G11" s="69"/>
       <c r="H11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O11" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="64" customFormat="1">
@@ -7027,39 +9281,39 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="153" t="s">
-        <v>102</v>
+      <c r="B12" s="109" t="s">
+        <v>99</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="67"/>
       <c r="G12" s="69"/>
       <c r="H12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I12" s="67"/>
       <c r="J12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O12" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="64" customFormat="1" ht="18" customHeight="1">
@@ -7067,39 +9321,39 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="154" t="s">
-        <v>92</v>
+      <c r="B13" s="110" t="s">
+        <v>89</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="78"/>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
       <c r="H13" s="77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K13" s="77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M13" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N13" s="68" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O13" s="77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="45" customFormat="1" ht="18" customHeight="1">
@@ -7438,15 +9692,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -7483,7 +9737,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -7491,86 +9745,199 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A5" s="5">
-        <f>ROW()-4</f>
+      <c r="A5" s="193">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="146" t="s">
+      <c r="B5" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="191" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="191" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="192" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="192" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="200" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="142" t="s">
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="192" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="144" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="140" t="s">
+      <c r="F8" s="192" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="3">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="141"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="8" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="9" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="199"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A10" s="195"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A11" s="195"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="199"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A12" s="195"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="199"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A14" s="195"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="199"/>
+    </row>
+    <row r="15" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="16" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="17" ht="26.4" customHeight="1"/>
+    <row r="18" ht="31.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -7580,7 +9947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X52"/>
   <sheetViews>
@@ -7651,19 +10018,19 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="70.05" customHeight="1">
       <c r="A3" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="E3" s="89" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>86</v>
       </c>
       <c r="F3" s="81"/>
       <c r="G3" s="81"/>
@@ -7690,16 +10057,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="93" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>90</v>
       </c>
       <c r="F4" s="81"/>
       <c r="G4" s="81"/>

--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22267" windowHeight="12653" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -12,24 +12,17 @@
     <sheet name="03_Definition" sheetId="5" r:id="rId3"/>
     <sheet name="04_Check Conditional_Monadic" sheetId="6" r:id="rId4"/>
     <sheet name="05_Check Conditional" sheetId="3" r:id="rId5"/>
-    <sheet name="06_Mapping Class, Action" sheetId="7" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Conditional_Monadic'!$A$1:$P$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'05_Check Conditional'!$A$1:$I$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'01_Screen Layout'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'02_Item definition'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'04_Check Conditional_Monadic'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'05_Check Conditional'!$1:$4</definedName>
-    <definedName name="YAJI_MT_登録仕訳" localSheetId="5">#REF!</definedName>
     <definedName name="YAJI_MT_登録仕訳">#REF!</definedName>
-    <definedName name="ああ" localSheetId="5">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -42,23 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="141">
   <si>
     <t>NgayDangKy</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Parameters:
-- {0}: NgaySinh
-- {1}: NgayDangKy</t>
-  </si>
-  <si>
-    <t>dialog</t>
-  </si>
-  <si>
-    <t>NgaySinh phải nhỏ hơn NgayDangKy</t>
   </si>
   <si>
     <t>NgaySinh</t>
@@ -95,30 +77,12 @@
     <t>－</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>button</t>
   </si>
   <si>
-    <t>btnExport</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>btnSearch</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -161,9 +125,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
@@ -189,9 +150,6 @@
   </si>
   <si>
     <t>I/O/IO</t>
-  </si>
-  <si>
-    <t>Region</t>
   </si>
   <si>
     <t>initial value</t>
@@ -228,18 +186,6 @@
     <t>- Khi admin click vào SKU từ danh sách hội viên, hệ thống sẽ hiển thị chi tiết của hội viên này.</t>
   </si>
   <si>
-    <t>Click on SKU</t>
-  </si>
-  <si>
-    <t>- Khi admin click vào buttton Export, hệ thống xuất file Word bao gồm danh sách hội viên được tìm kiếm và thông tin số mã vạch, đăng ký,  họ tên, quốc tịch, địa chỉ số điện thoại, hình, ngày đăng ký, ngày sinh, nơi sinh, lớp đăng ký và các đai đẳn đạt được</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Khi admin nhập vào những thông tin mình cần tìm kiếm vào textbox SKU, Ngày Đăng Ký, Họ Tên hay Ngày Sinh  trong form tìm kiếm theo điều kiện, sau đó admin click vào button Search hệ thống sẽ hiển thị thông tin tìm kiếm ở bên dưới </t>
-  </si>
-  <si>
-    <t>Click on Search</t>
-  </si>
-  <si>
     <t>Process details</t>
   </si>
   <si>
@@ -252,12 +198,6 @@
     <t>２． Event processing</t>
   </si>
   <si>
-    <t>Admin đã đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>Admin đăng nhập vào hệ thống</t>
-  </si>
-  <si>
     <t>１． Processing at initial display</t>
   </si>
   <si>
@@ -336,38 +276,199 @@
     <t>required</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Ngày Đăng Ký</t>
+  </si>
+  <si>
+    <t>Họ Tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày Sinh </t>
+  </si>
+  <si>
+    <t>Quốc Tịch</t>
+  </si>
+  <si>
+    <t>Hiển thị Quốc Tịch</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Số Điện Thoại</t>
+  </si>
+  <si>
+    <t>Hiển thị SKU</t>
+  </si>
+  <si>
+    <t>Hiển thị Họ Tên</t>
+  </si>
+  <si>
+    <t>Hiển thị Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Hiển thị Số Điện Thoại</t>
+  </si>
+  <si>
+    <t>Hiển thị Ngày Đăng Ký</t>
+  </si>
+  <si>
+    <t>Click Search / Hiển thị thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>Click Export / Xuất ra file Word</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Ngày Sinh</t>
+  </si>
+  <si>
+    <t>Tìm Kiếm</t>
+  </si>
+  <si>
+    <t>TimKiem</t>
+  </si>
+  <si>
+    <t>Xuất File</t>
+  </si>
+  <si>
+    <t>XuatFile</t>
+  </si>
+  <si>
+    <t>btnTimKiem</t>
+  </si>
+  <si>
+    <t>btnXuatFile</t>
+  </si>
+  <si>
+    <t>Admin nhập vào những thông tin cần tìm kiếm vào các textbox SKU, Ngày Đăng Ký, Họ Tên, Ngày Sinh trong form Tìm Kiếm Theo Điều Kiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị form Tìm Kiếm Theo Điều
+ Kiện
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Khi admin nhập vào những thông tin mình cần tìm kiếm vào textbox SKU, Ngày Đăng Ký, Họ Tên hay Ngày Sinh  trong form tìm kiếm theo điều kiện, sau đó admin click vào button Tìm Kiếm hệ thống sẽ hiển thị thông tin tìm kiếm ở bên dưới </t>
+  </si>
+  <si>
+    <t>- Khi admin click vào buttton Xuất File, hệ thống xuất file Word bao gồm danh sách hội viên được tìm kiếm và thông tin số mã vạch, đăng ký,  họ tên, quốc tịch, địa chỉ số điện thoại, hình, ngày đăng ký, ngày sinh, nơi sinh, lớp đăng ký và các đai đẳn đạt được</t>
+  </si>
+  <si>
+    <t>Ngày Sinh phải nhỏ hơn ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Ngày Đăng Ký lớn hơn hoặc bằng ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Không xuất được file word</t>
+  </si>
+  <si>
+    <t>{0}: xuất file bị lỗi</t>
+  </si>
+  <si>
+    <t>Không có dữ liều cần tìm kiếm</t>
+  </si>
+  <si>
+    <t>{0}: tìm kiếm</t>
+  </si>
+  <si>
+    <t>{0}: ngày đăng ký</t>
+  </si>
+  <si>
+    <t>{0}: ngày sinh</t>
+  </si>
+  <si>
+    <t>Nhập SKU cần tìm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập Ngày Đăng Ký </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập Họ Tên </t>
+  </si>
+  <si>
+    <t>Nhập Ngày SinhS</t>
+  </si>
+  <si>
+    <t>3. Mapping Action and Class</t>
+  </si>
+  <si>
     <t>Ｎｏ</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>DAO</t>
-  </si>
-  <si>
-    <t>BLO</t>
+    <t>DAO Layer</t>
+  </si>
+  <si>
+    <t>BLO Layer</t>
   </si>
   <si>
     <t>VIEW</t>
   </si>
   <si>
-    <t>Tìm kiếm hội viên</t>
-  </si>
-  <si>
-    <t>SearchMember.cs</t>
-  </si>
-  <si>
-    <t>Student,Provide_Dai_Dan,Dai_Dan DbConnect.cs</t>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Xuất file excel</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tìm kiếm</t>
+  </si>
+  <si>
+    <t>Chuyển form xem chi tiết hội viên</t>
+  </si>
+  <si>
+    <t>Student_Model.cs, AccessDB_DAO.cs</t>
+  </si>
+  <si>
+    <t>SearchMember_BLO.cs</t>
+  </si>
+  <si>
+    <t>RegisterMemberScreen.xaml</t>
+  </si>
+  <si>
+    <t>RegisterMember_BLO.cs</t>
   </si>
   <si>
     <t>SearchCondition.xaml</t>
+  </si>
+  <si>
+    <t>RegisterNumber</t>
+  </si>
+  <si>
+    <t>Xuất File excel</t>
+  </si>
+  <si>
+    <t>AKD-MS008-E</t>
+  </si>
+  <si>
+    <t>AKD-MS007-E</t>
+  </si>
+  <si>
+    <t>AKD-MS010-E</t>
+  </si>
+  <si>
+    <t>AKD-MS011-E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +548,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -479,12 +609,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -887,112 +1017,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1003,7 +1027,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1077,9 +1101,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1098,9 +1119,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,9 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1138,9 +1153,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1175,12 +1187,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,6 +1262,221 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,198 +1486,104 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2154,69 +2281,44 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>199215</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69723</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9416527" cy="4056978"/>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>679631</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 1"/>
+        <xdr:cNvPr id="14" name="Picture 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="320040"/>
-          <a:ext cx="9416527" cy="4056978"/>
+          <a:off x="199215" y="1125567"/>
+          <a:ext cx="9714063" cy="4143688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2245,7 +2347,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22739" y="82126"/>
-          <a:ext cx="13825490" cy="530176"/>
+          <a:ext cx="13300556" cy="530176"/>
           <a:chOff x="5" y="2"/>
           <a:chExt cx="1216" cy="54"/>
         </a:xfrm>
@@ -2430,7 +2532,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="747" y="31"/>
+            <a:off x="609" y="36"/>
             <a:ext cx="428" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2692,7 +2794,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="178" y="31"/>
+            <a:off x="65" y="33"/>
             <a:ext cx="402" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2868,6 +2970,81 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1055417" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8500533" y="5655733"/>
+          <a:ext cx="1055417" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>SKU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>MemberName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Day_Register</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Day_of_Birth</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3013,16 +3190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>251460</xdr:rowOff>
+      <xdr:rowOff>236220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3033,8 +3210,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4579620" y="83820"/>
-          <a:ext cx="1958340" cy="83820"/>
+          <a:off x="4503420" y="68580"/>
+          <a:ext cx="1234440" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3087,14 +3264,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
@@ -3107,8 +3284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6987540" y="53340"/>
-          <a:ext cx="2270760" cy="114300"/>
+          <a:off x="6256020" y="53340"/>
+          <a:ext cx="4038600" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3152,16 +3329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>289560</xdr:rowOff>
+      <xdr:rowOff>327660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>449580</xdr:rowOff>
+      <xdr:rowOff>487680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3172,8 +3349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4533900" y="167640"/>
-          <a:ext cx="1958340" cy="0"/>
+          <a:off x="4427220" y="327660"/>
+          <a:ext cx="1188720" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3301,16 +3478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>251460</xdr:rowOff>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>441960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3321,8 +3498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7002780" y="167640"/>
-          <a:ext cx="2255520" cy="0"/>
+          <a:off x="6278880" y="274320"/>
+          <a:ext cx="4099560" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3518,13 +3695,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1477434</xdr:colOff>
+      <xdr:colOff>1043094</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>66886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1104054</xdr:colOff>
+      <xdr:colOff>669714</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>234526</xdr:rowOff>
     </xdr:to>
@@ -3537,8 +3714,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1790701" y="66886"/>
-          <a:ext cx="1303020" cy="167640"/>
+          <a:off x="1325034" y="66886"/>
+          <a:ext cx="1135380" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3593,7 +3770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3604,7 +3781,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>502920</xdr:rowOff>
     </xdr:to>
@@ -3912,7 +4089,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="170" y="32"/>
+            <a:off x="294" y="31"/>
             <a:ext cx="402" cy="17"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -4193,706 +4370,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2455333</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>663787</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 199"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9177866" cy="663787"/>
-          <a:chOff x="0" y="2"/>
-          <a:chExt cx="1121" cy="52"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 200" descr="PTMS_docs_header"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect b="32468"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="2"/>
-            <a:ext cx="1121" cy="52"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 201"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="287" y="10"/>
-            <a:ext cx="274" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen item definition</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 202"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="565" y="11"/>
-            <a:ext cx="155" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>system-name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Text Box 203"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="727" y="9"/>
-            <a:ext cx="384" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>Aidiko dojo's Member Management</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Text Box 204"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="163" y="10"/>
-            <a:ext cx="122" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 205"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="566" y="34"/>
-            <a:ext cx="155" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Screen ID</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 206"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="161" y="34"/>
-            <a:ext cx="394" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Conditional</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="MS PGothic" panose="020B0600070205080204" pitchFamily="34" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Search</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Text Box 207"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="725" y="33"/>
-            <a:ext cx="393" cy="17"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック"/>
-                <a:ea typeface="ＭＳ Ｐゴシック"/>
-              </a:rPr>
-              <a:t>AKD004</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Text Box 208"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4" y="11"/>
-            <a:ext cx="154" cy="20"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Form number</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 209"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3" y="34"/>
-            <a:ext cx="154" cy="19"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>screen name</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="01_Screen Layout"/>
-      <sheetName val="02_Item Definition"/>
-      <sheetName val="03_Definition"/>
-      <sheetName val="04_check Condition Monadic"/>
-      <sheetName val="05_Check Condition"/>
-      <sheetName val="06_Mapping Class, Action"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5162,7 +4639,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -5187,10 +4664,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
@@ -5199,682 +4676,673 @@
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="20" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="55" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="20" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" style="20" customWidth="1"/>
     <col min="12" max="12" width="8.44140625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" style="20" customWidth="1"/>
     <col min="14" max="14" width="22.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="56.35" customHeight="1">
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1">
+    <row r="1" spans="1:13" ht="56.35" customHeight="1">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17.350000000000001" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A14" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31">
+      <c r="B3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="30">
         <v>20</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="37" t="s">
+      <c r="H3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.350000000000001" customHeight="1">
+      <c r="J3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23.35" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31" t="s">
+      <c r="B4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="67">
+        <v>9</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.350000000000001" customHeight="1">
+      <c r="H4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="25.2" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="31">
+      <c r="B5" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="30">
         <v>50</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="H5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31" t="s">
+      <c r="B6" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="67">
+        <v>9</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="33" t="s">
+      <c r="H6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="37" t="s">
+      <c r="J6" s="31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.350000000000001" customHeight="1">
+      <c r="K6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33" t="s">
+      <c r="B7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="31" t="s">
+      <c r="G7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="I7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="L7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33" t="s">
+      <c r="B8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="G8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="I8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1">
+      <c r="L8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="F9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="G9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="I9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="L9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="G10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="I10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="L10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="F11" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="31" t="s">
+      <c r="G11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="I11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="L11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="31" t="s">
+      <c r="G12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="I12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="L12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.85" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="G13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="31" t="s">
+      <c r="J13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="31" t="s">
+      <c r="L13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="30">
+      <c r="M13" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27.7" customHeight="1">
+      <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="28" t="s">
+      <c r="B14" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="25" t="s">
-        <v>16</v>
+      <c r="L14" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E15" s="81"/>
       <c r="F15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:14" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E16" s="81"/>
       <c r="F16" s="23"/>
       <c r="I16" s="23"/>
     </row>
     <row r="17" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E17" s="81"/>
       <c r="F17" s="23"/>
       <c r="I17" s="23"/>
     </row>
     <row r="18" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E18" s="81"/>
       <c r="F18" s="23"/>
       <c r="I18" s="23"/>
     </row>
     <row r="19" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E19" s="23"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="23"/>
       <c r="I19" s="23"/>
     </row>
     <row r="20" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E20" s="23"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="23"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E21" s="23"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="23"/>
       <c r="I21" s="23"/>
     </row>
     <row r="22" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E22" s="23"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="23"/>
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E23" s="23"/>
+      <c r="E23" s="82"/>
       <c r="F23" s="23"/>
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E24" s="23"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="23"/>
       <c r="I24" s="23"/>
     </row>
     <row r="25" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E25" s="23"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="23"/>
       <c r="I25" s="23"/>
     </row>
     <row r="26" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E26" s="23"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="23"/>
       <c r="I26" s="23"/>
     </row>
     <row r="27" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E27" s="23"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="23"/>
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E28" s="23"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="23"/>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E29" s="23"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="23"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="E30" s="23"/>
+      <c r="E30" s="82"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="I30" s="23"/>
       <c r="K30" s="23"/>
     </row>
     <row r="31" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E31" s="81"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="I31" s="23"/>
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="5:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E32" s="81"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="I32" s="23"/>
       <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="E33" s="81"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="I33" s="23"/>
@@ -5885,7 +5353,7 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -5900,7 +5368,7 @@
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -5915,7 +5383,7 @@
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -5930,7 +5398,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -5945,7 +5413,7 @@
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -5960,7 +5428,7 @@
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -5983,463 +5451,601 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:D23"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" activeCellId="1" sqref="B17:D18 B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="40"/>
-    <col min="2" max="2" width="10.77734375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="40"/>
-    <col min="5" max="5" width="12.33203125" style="40" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" style="40"/>
-    <col min="11" max="11" width="8.5546875" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="40"/>
+    <col min="1" max="1" width="8.88671875" style="37"/>
+    <col min="2" max="2" width="10.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="37"/>
+    <col min="5" max="5" width="12.33203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="37"/>
+    <col min="7" max="7" width="45" style="37" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="37"/>
+    <col min="11" max="11" width="12.6640625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="37"/>
+    <col min="13" max="13" width="18.33203125" style="37" customWidth="1"/>
+    <col min="14" max="14" width="0.21875" style="37" customWidth="1"/>
+    <col min="15" max="22" width="8.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130"/>
+      <c r="A1" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="125" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="132"/>
+      <c r="C2" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="132"/>
+      <c r="H2" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="119"/>
+      <c r="A3" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="156" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
+      <c r="A4" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
+      <c r="A6" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
+      <c r="A8" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="44">
+      <c r="A9" s="113">
         <v>1</v>
       </c>
-      <c r="B9" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="B9" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="46"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="46"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="46"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+    </row>
+    <row r="11" spans="1:12" ht="8.35" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
+      <c r="A12" s="115"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="13.35">
-      <c r="A14" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-    </row>
-    <row r="17" spans="1:12" ht="40.85" customHeight="1">
-      <c r="A17" s="44">
+      <c r="A16" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="173" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.85" customHeight="1">
+      <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-    </row>
-    <row r="18" spans="1:12" ht="42.7" customHeight="1">
-      <c r="A18" s="44">
+      <c r="B17" s="170" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.85" customHeight="1">
+      <c r="A18" s="41">
         <v>2</v>
       </c>
-      <c r="B18" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.85" customHeight="1">
-      <c r="A19" s="43">
+      <c r="B18" s="174" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="175" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
+    </row>
+    <row r="19" spans="1:13" ht="27" customHeight="1">
+      <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="42"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="41"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="41"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-    </row>
-    <row r="23" spans="1:12" ht="27" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-    </row>
-    <row r="24" spans="1:12" ht="40.200000000000003" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-    </row>
-    <row r="26" spans="1:12" ht="11.35" customHeight="1"/>
-    <row r="27" spans="1:12" ht="15" customHeight="1"/>
-    <row r="28" spans="1:12" ht="15" customHeight="1"/>
-    <row r="54" spans="1:11" ht="20.7">
-      <c r="A54" s="108"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="108"/>
+      <c r="B19" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="39"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="38"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+    </row>
+    <row r="22" spans="1:13" s="109" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A22" s="110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
+    <row r="24" spans="1:13" s="109" customFormat="1" ht="24.7" customHeight="1">
+      <c r="A24" s="176" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="178" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="179"/>
+      <c r="D24" s="182" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="178" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="179"/>
+      <c r="L24" s="178" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="179"/>
+    </row>
+    <row r="25" spans="1:13" s="109" customFormat="1" ht="15.35" customHeight="1">
+      <c r="A25" s="177"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="185" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="185" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="187"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="181"/>
+    </row>
+    <row r="26" spans="1:13" s="109" customFormat="1" ht="63.35" customHeight="1">
+      <c r="A26" s="111">
+        <v>1</v>
+      </c>
+      <c r="B26" s="182" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="184"/>
+      <c r="D26" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="179"/>
+      <c r="L26" s="178" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="179"/>
+    </row>
+    <row r="27" spans="1:13" s="109" customFormat="1" ht="26" customHeight="1">
+      <c r="A27" s="111">
+        <v>2</v>
+      </c>
+      <c r="B27" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="184"/>
+      <c r="D27" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="182" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="184"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="189"/>
+    </row>
+    <row r="28" spans="1:13" s="109" customFormat="1" ht="48.7" customHeight="1">
+      <c r="A28" s="112">
+        <v>3</v>
+      </c>
+      <c r="B28" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="184"/>
+      <c r="D28" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="182" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="184"/>
+      <c r="J28" s="182" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="184"/>
+      <c r="L28" s="182" t="s">
+        <v>132</v>
+      </c>
+      <c r="M28" s="184"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="L29" s="108"/>
+    </row>
+    <row r="53" spans="1:11" ht="20.7">
+      <c r="A53" s="160"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="160"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.35">
+      <c r="A56" s="161"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
     </row>
     <row r="57" spans="1:11" ht="13.35">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-    </row>
-    <row r="58" spans="1:11" ht="13.35">
-      <c r="A58" s="91"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
+      <c r="A57" s="161"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="161"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="161"/>
+      <c r="K58" s="161"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="91"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="93"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="93"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
+      <c r="A61" s="137"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="93"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="93"/>
-      <c r="J63" s="93"/>
-      <c r="K63" s="93"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="60">
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E9:L12"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6453,52 +6059,19 @@
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:L24"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B9:D12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="85" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="49" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;L&amp;F&amp;RPTMS-BD
 </oddHeader>
     <oddFooter>&amp;LCopyright(c) 2008 HJ All rights reserved.&amp;R3-&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="21" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6508,7 +6081,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
@@ -6517,10 +6090,10 @@
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="6.109375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="6.109375" style="44" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" style="44" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
@@ -6530,485 +6103,485 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="63" customFormat="1" ht="47.35" customHeight="1">
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="L1" s="65"/>
-      <c r="O1" s="65"/>
+    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.35" customHeight="1">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="L1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="56"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:15" ht="107.35">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>87</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="70" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="64" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A4" s="60">
         <f t="shared" ref="A4:A13" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="68">
+      <c r="B4" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="62">
         <v>20</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="70" customFormat="1" ht="41.35" customHeight="1">
-      <c r="A5" s="71">
+      <c r="N4" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.35" customHeight="1">
+      <c r="A5" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" s="72" t="s">
+      <c r="B5" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="70" customFormat="1" ht="27.7" customHeight="1">
-      <c r="A6" s="77">
+      <c r="O5" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="27.85" customHeight="1">
+      <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="74">
+      <c r="B6" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="68">
         <v>50</v>
       </c>
-      <c r="M6" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="70" customFormat="1" ht="30.7">
-      <c r="A7" s="77">
+      <c r="M6" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="30.7">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="77">
+      <c r="B7" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="64" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="74">
-        <v>20</v>
-      </c>
-      <c r="M8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="70" customFormat="1">
-      <c r="A9" s="77">
+      <c r="B8" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="64" customFormat="1">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="74">
-        <v>50</v>
-      </c>
-      <c r="M9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="70" customFormat="1">
-      <c r="A10" s="77">
+      <c r="B9" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="64" customFormat="1">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="74">
-        <v>50</v>
-      </c>
-      <c r="M10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="77">
+      <c r="B10" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="74">
-        <v>100</v>
-      </c>
-      <c r="M11" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="70" customFormat="1">
-      <c r="A12" s="77">
+      <c r="B11" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="72"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="64" customFormat="1">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="74">
-        <v>50</v>
-      </c>
-      <c r="M12" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="81">
+      <c r="B12" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="49" customFormat="1" ht="18" customHeight="1">
+      <c r="B13" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -7025,7 +6598,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:15" s="49" customFormat="1" ht="18" customHeight="1">
+    <row r="15" spans="1:15" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -7349,10 +6922,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -7389,7 +6962,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -7397,408 +6970,204 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.7" customHeight="1">
-      <c r="A5" s="5">
-        <f>ROW()-4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="138" t="s">
+      <c r="B5" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="138" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="134" t="s">
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="132" t="s">
+      <c r="F8" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.7" customHeight="1">
-      <c r="A6" s="3">
-        <f>ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="133"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="8" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="9" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1"/>
+    <row r="9" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A12" s="102"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+    </row>
+    <row r="13" spans="1:8" ht="21.85" customHeight="1">
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1">
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+    </row>
+    <row r="15" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="16" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="17" ht="26.35" customHeight="1"/>
+    <row r="18" ht="31.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R5-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.35"/>
-  <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="11" max="24" width="8.88671875" style="154"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="56.35" customHeight="1" thickBot="1">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="11.35">
-      <c r="A2" s="144"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="70" customHeight="1">
-      <c r="A3" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="149" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-    </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="150">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="152" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="153" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-    </row>
-    <row r="15" spans="1:24" s="154" customFormat="1">
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-    </row>
-    <row r="16" spans="1:24" s="154" customFormat="1">
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-    </row>
-    <row r="17" s="154" customFormat="1"/>
-    <row r="18" s="154" customFormat="1"/>
-    <row r="19" s="154" customFormat="1"/>
-    <row r="20" s="154" customFormat="1"/>
-    <row r="21" s="154" customFormat="1"/>
-    <row r="22" s="154" customFormat="1"/>
-    <row r="23" s="154" customFormat="1"/>
-    <row r="24" s="154" customFormat="1"/>
-    <row r="25" s="154" customFormat="1"/>
-    <row r="26" s="154" customFormat="1"/>
-    <row r="27" s="154" customFormat="1"/>
-    <row r="28" s="154" customFormat="1"/>
-    <row r="29" s="154" customFormat="1"/>
-    <row r="30" s="154" customFormat="1"/>
-    <row r="31" s="154" customFormat="1"/>
-    <row r="32" s="154" customFormat="1"/>
-    <row r="33" s="154" customFormat="1"/>
-    <row r="34" s="154" customFormat="1"/>
-    <row r="35" s="154" customFormat="1"/>
-    <row r="36" s="154" customFormat="1"/>
-    <row r="37" s="154" customFormat="1"/>
-    <row r="38" s="154" customFormat="1"/>
-    <row r="39" s="154" customFormat="1"/>
-    <row r="40" s="154" customFormat="1"/>
-    <row r="41" s="154" customFormat="1"/>
-    <row r="42" s="154" customFormat="1"/>
-    <row r="43" s="154" customFormat="1"/>
-    <row r="44" s="154" customFormat="1"/>
-    <row r="45" s="154" customFormat="1"/>
-    <row r="46" s="154" customFormat="1"/>
-    <row r="47" s="154" customFormat="1"/>
-    <row r="48" s="154" customFormat="1"/>
-    <row r="49" s="154" customFormat="1"/>
-    <row r="50" s="154" customFormat="1"/>
-    <row r="51" s="154" customFormat="1"/>
-    <row r="52" s="154" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="05_Check Conditional" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Conditional_Monadic'!$A$1:$P$32</definedName>
@@ -1357,56 +1357,77 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1414,86 +1435,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,77 +1476,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2283,40 +2283,119 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>199215</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69723</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>49804</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>679631</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>29882</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>574740</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="16" name="Picture 15"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="199215" y="1125567"/>
-          <a:ext cx="9714063" cy="4143688"/>
+          <a:off x="737098" y="796863"/>
+          <a:ext cx="7009407" cy="5378823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>29883</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547843</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="786902"/>
+          <a:ext cx="7002431" cy="5458510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4638,8 +4717,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -5476,295 +5555,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125" t="s">
+      <c r="E1" s="166"/>
+      <c r="F1" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126" t="s">
+      <c r="G1" s="166"/>
+      <c r="H1" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="129" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="141" t="s">
+      <c r="G2" s="171"/>
+      <c r="H2" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="143"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="156" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="158"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="113">
+      <c r="A9" s="154">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="116" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="114"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="162"/>
     </row>
     <row r="11" spans="1:12" ht="8.35" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="162"/>
     </row>
     <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="115"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
     </row>
     <row r="13" spans="1:12">
       <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="13.35">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173" t="s">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
     </row>
     <row r="17" spans="1:13" ht="40.85" customHeight="1">
       <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171" t="s">
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
     </row>
     <row r="18" spans="1:13" ht="42.85" customHeight="1">
       <c r="A18" s="41">
         <v>2</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175" t="s">
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138"/>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1">
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168" t="s">
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="39"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="38"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="110" t="s">
@@ -5773,261 +5852,249 @@
     </row>
     <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
     <row r="24" spans="1:13" s="109" customFormat="1" ht="24.7" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="179"/>
-      <c r="D24" s="182" t="s">
+      <c r="C24" s="114"/>
+      <c r="D24" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="178" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="179"/>
-      <c r="L24" s="178" t="s">
+      <c r="K24" s="114"/>
+      <c r="L24" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="179"/>
+      <c r="M24" s="114"/>
     </row>
     <row r="25" spans="1:13" s="109" customFormat="1" ht="15.35" customHeight="1">
-      <c r="A25" s="177"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="185" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="185" t="s">
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="187"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="181"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
     </row>
     <row r="26" spans="1:13" s="109" customFormat="1" ht="63.35" customHeight="1">
       <c r="A26" s="111">
         <v>1</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="182" t="s">
+      <c r="C26" s="118"/>
+      <c r="D26" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="178" t="s">
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="179"/>
-      <c r="L26" s="178" t="s">
+      <c r="K26" s="114"/>
+      <c r="L26" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="M26" s="179"/>
+      <c r="M26" s="114"/>
     </row>
     <row r="27" spans="1:13" s="109" customFormat="1" ht="26" customHeight="1">
       <c r="A27" s="111">
         <v>2</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="184"/>
-      <c r="D27" s="182" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="182" t="s">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="184"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="189"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
     </row>
     <row r="28" spans="1:13" s="109" customFormat="1" ht="48.7" customHeight="1">
       <c r="A28" s="112">
         <v>3</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="182" t="s">
+      <c r="C28" s="118"/>
+      <c r="D28" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="182" t="s">
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="184"/>
-      <c r="J28" s="182" t="s">
+      <c r="I28" s="118"/>
+      <c r="J28" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="184"/>
-      <c r="L28" s="182" t="s">
+      <c r="K28" s="118"/>
+      <c r="L28" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="184"/>
+      <c r="M28" s="118"/>
     </row>
     <row r="29" spans="1:13">
       <c r="L29" s="108"/>
     </row>
     <row r="53" spans="1:11" ht="20.7">
-      <c r="A53" s="160"/>
-      <c r="B53" s="160"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
+      <c r="A53" s="148"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="148"/>
     </row>
     <row r="56" spans="1:11" ht="13.35">
-      <c r="A56" s="161"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="162"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
     </row>
     <row r="57" spans="1:11" ht="13.35">
-      <c r="A57" s="161"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="162"/>
-      <c r="K57" s="162"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="161"/>
-      <c r="B58" s="161"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="161"/>
-      <c r="G58" s="161"/>
-      <c r="H58" s="161"/>
-      <c r="I58" s="161"/>
-      <c r="J58" s="161"/>
-      <c r="K58" s="161"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="137"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="142"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="142"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="137"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="142"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="142"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="142"/>
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E9:L12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B9:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:L21"/>
     <mergeCell ref="A61:K61"/>
@@ -6044,22 +6111,34 @@
     <mergeCell ref="A59:K59"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:L20"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E9:L12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B9:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="49" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6924,7 +7003,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -1357,77 +1357,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1435,6 +1414,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,9 +1486,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1455,9 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1476,113 +1512,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4746,7 +4746,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
@@ -5555,295 +5555,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="166"/>
-      <c r="H1" s="167" t="s">
+      <c r="G1" s="125"/>
+      <c r="H1" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="170" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="171" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="179" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="143" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="178"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="137"/>
     </row>
     <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147" t="s">
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="154">
+      <c r="A9" s="113">
         <v>1</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="157" t="s">
+      <c r="C9" s="145"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="155"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="162"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:12" ht="8.35" customHeight="1">
-      <c r="A11" s="155"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="162"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="124"/>
     </row>
     <row r="13" spans="1:12">
       <c r="G13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="13.35">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134" t="s">
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
     </row>
     <row r="17" spans="1:13" ht="40.85" customHeight="1">
       <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132" t="s">
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
     </row>
     <row r="18" spans="1:13" ht="42.85" customHeight="1">
       <c r="A18" s="41">
         <v>2</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136" t="s">
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="138"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1">
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="127" t="s">
+      <c r="B19" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129" t="s">
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="169"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="39"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="38"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="110" t="s">
@@ -5852,233 +5852,277 @@
     </row>
     <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
     <row r="24" spans="1:13" s="109" customFormat="1" ht="24.7" customHeight="1">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="117" t="s">
+      <c r="C24" s="179"/>
+      <c r="D24" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="113" t="s">
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="114"/>
-      <c r="L24" s="113" t="s">
+      <c r="K24" s="179"/>
+      <c r="L24" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="114"/>
+      <c r="M24" s="179"/>
     </row>
     <row r="25" spans="1:13" s="109" customFormat="1" ht="15.35" customHeight="1">
-      <c r="A25" s="121"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124" t="s">
+      <c r="A25" s="177"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="124" t="s">
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="126"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="181"/>
     </row>
     <row r="26" spans="1:13" s="109" customFormat="1" ht="63.35" customHeight="1">
       <c r="A26" s="111">
         <v>1</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="117" t="s">
+      <c r="C26" s="184"/>
+      <c r="D26" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="113" t="s">
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="113" t="s">
+      <c r="K26" s="179"/>
+      <c r="L26" s="178" t="s">
         <v>134</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="179"/>
     </row>
     <row r="27" spans="1:13" s="109" customFormat="1" ht="26" customHeight="1">
       <c r="A27" s="111">
         <v>2</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="117" t="s">
+      <c r="C27" s="184"/>
+      <c r="D27" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="117" t="s">
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="118"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="189"/>
     </row>
     <row r="28" spans="1:13" s="109" customFormat="1" ht="48.7" customHeight="1">
       <c r="A28" s="112">
         <v>3</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="117" t="s">
+      <c r="C28" s="184"/>
+      <c r="D28" s="182" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="117" t="s">
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="118"/>
-      <c r="J28" s="117" t="s">
+      <c r="I28" s="184"/>
+      <c r="J28" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="118"/>
-      <c r="L28" s="117" t="s">
+      <c r="K28" s="184"/>
+      <c r="L28" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="118"/>
+      <c r="M28" s="184"/>
     </row>
     <row r="29" spans="1:13">
       <c r="L29" s="108"/>
     </row>
     <row r="53" spans="1:11" ht="20.7">
-      <c r="A53" s="148"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="148"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="160"/>
     </row>
     <row r="56" spans="1:11" ht="13.35">
-      <c r="A56" s="149"/>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
+      <c r="A56" s="161"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="162"/>
+      <c r="D56" s="162"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
     </row>
     <row r="57" spans="1:11" ht="13.35">
-      <c r="A57" s="149"/>
-      <c r="B57" s="150"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
+      <c r="A57" s="161"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="149"/>
+      <c r="A58" s="161"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="161"/>
+      <c r="K58" s="161"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="142"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="142"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="142"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="142"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="142"/>
+      <c r="A61" s="137"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="142"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="142"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="E9:L12"/>
     <mergeCell ref="D1:E1"/>
@@ -6095,50 +6139,6 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B9:D12"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="49" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17320" windowHeight="10533"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="143">
   <si>
     <t>NgayDangKy</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Blank</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>dtNgaySinh</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">- NgayDangKy phải lớn hơn hoặc bằng với ngày hiện tại </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dtNgayDangKy </t>
   </si>
   <si>
     <t>Maximum value</t>
@@ -392,9 +386,6 @@
     <t xml:space="preserve">Nhập Họ Tên </t>
   </si>
   <si>
-    <t>Nhập Ngày SinhS</t>
-  </si>
-  <si>
     <t>3. Mapping Action and Class</t>
   </si>
   <si>
@@ -462,6 +453,21 @@
   </si>
   <si>
     <t>AKD-MS011-E</t>
+  </si>
+  <si>
+    <t>dtpNgaySinh</t>
+  </si>
+  <si>
+    <t>datetime picker</t>
+  </si>
+  <si>
+    <t>Nhập Ngày Sinh</t>
+  </si>
+  <si>
+    <t>dtpNgayDangKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtpNgayDangKy </t>
   </si>
 </sst>
 </file>
@@ -1357,56 +1363,77 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1414,86 +1441,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,77 +1482,113 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1630,7 +1636,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="10454341" cy="475179"/>
+          <a:ext cx="9441180" cy="480060"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="749" cy="51"/>
         </a:xfrm>
@@ -2426,7 +2432,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22739" y="82126"/>
-          <a:ext cx="13300556" cy="530176"/>
+          <a:ext cx="12242223" cy="530176"/>
           <a:chOff x="5" y="2"/>
           <a:chExt cx="1216" cy="54"/>
         </a:xfrm>
@@ -3874,7 +3880,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="7620"/>
-          <a:ext cx="11499427" cy="495300"/>
+          <a:ext cx="10347960" cy="495300"/>
           <a:chOff x="2" y="1"/>
           <a:chExt cx="1152" cy="52"/>
         </a:xfrm>
@@ -4717,18 +4723,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="3.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.85" customHeight="1"/>
+    <row r="1" ht="39.9" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4746,10 +4752,10 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
@@ -4758,7 +4764,7 @@
     <col min="5" max="5" width="10.33203125" style="55" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="20" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="20" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" style="20" customWidth="1"/>
@@ -4769,7 +4775,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="56.35" customHeight="1">
+    <row r="1" spans="1:13" ht="56.4" customHeight="1">
       <c r="F1" s="56"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
@@ -4781,46 +4787,46 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A14" si="0">ROW()-2</f>
         <v>1</v>
@@ -4832,10 +4838,10 @@
         <v>27</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="30">
         <v>20</v>
@@ -4844,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>1</v>
@@ -4859,22 +4865,22 @@
         <v>28</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="23.35" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23.4" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="E4" s="67">
         <v>9</v>
@@ -4886,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>1</v>
@@ -4901,25 +4907,25 @@
         <v>28</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="25.2" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="30">
         <v>50</v>
@@ -4928,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>1</v>
@@ -4943,7 +4949,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4952,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E6" s="67">
         <v>9</v>
@@ -4970,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>1</v>
@@ -4985,10 +4991,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.350000000000001" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5027,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
@@ -5036,10 +5042,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>24</v>
@@ -5069,7 +5075,7 @@
         <v>14</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
@@ -5078,10 +5084,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -5111,7 +5117,7 @@
         <v>14</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
@@ -5120,10 +5126,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
@@ -5153,7 +5159,7 @@
         <v>14</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
@@ -5162,10 +5168,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
@@ -5195,7 +5201,7 @@
         <v>14</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
@@ -5204,10 +5210,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
@@ -5237,25 +5243,25 @@
         <v>14</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="22.85" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.8" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>1</v>
@@ -5279,25 +5285,25 @@
         <v>1</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="27.7" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27.75" customHeight="1">
       <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>101</v>
-      </c>
       <c r="E14" s="79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>1</v>
@@ -5321,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
@@ -5427,7 +5433,7 @@
       <c r="I33" s="23"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="13.35">
+    <row r="34" spans="1:13" ht="13.2">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -5442,7 +5448,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" ht="13.35">
+    <row r="35" spans="1:13" ht="13.2">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -5457,7 +5463,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" ht="13.35">
+    <row r="36" spans="1:13" ht="13.2">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -5472,7 +5478,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:13" ht="13.35">
+    <row r="37" spans="1:13" ht="13.2">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -5487,7 +5493,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="1:13" ht="13.35">
+    <row r="38" spans="1:13" ht="13.2">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5502,7 +5508,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="1:13" ht="13.35">
+    <row r="39" spans="1:13" ht="13.2">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -5532,11 +5538,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" activeCellId="1" sqref="B17:D18 B19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="37"/>
     <col min="2" max="2" width="10.77734375" style="37" customWidth="1"/>
@@ -5555,558 +5561,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="133" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="125"/>
+      <c r="A1" s="172" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="166"/>
       <c r="C1" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125" t="s">
+      <c r="D1" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126" t="s">
+      <c r="E1" s="166"/>
+      <c r="F1" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="134" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="129" t="s">
+      <c r="A2" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="141" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="143"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="179" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="134" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="156" t="s">
+      <c r="A3" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="158"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="143" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
+      <c r="A4" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="178"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.35">
-      <c r="A6" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159" t="s">
+      <c r="B8" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="113">
+      <c r="A9" s="154">
         <v>1</v>
       </c>
-      <c r="B9" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
+      <c r="B9" s="157" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="159"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="114"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
-    </row>
-    <row r="11" spans="1:12" ht="8.35" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="162"/>
+    </row>
+    <row r="11" spans="1:12" ht="8.4" customHeight="1">
+      <c r="A11" s="155"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="162"/>
     </row>
     <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="115"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="124"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
     </row>
     <row r="13" spans="1:12">
       <c r="G13" s="80"/>
     </row>
-    <row r="14" spans="1:12" ht="13.35">
-      <c r="A14" s="144" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
+    <row r="14" spans="1:12">
+      <c r="A14" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173" t="s">
+      <c r="B16" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.85" customHeight="1">
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.799999999999997" customHeight="1">
       <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="170" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-    </row>
-    <row r="18" spans="1:13" ht="42.85" customHeight="1">
+      <c r="B17" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.9" customHeight="1">
       <c r="A18" s="41">
         <v>2</v>
       </c>
-      <c r="B18" s="174" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="B18" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="138"/>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1">
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="166" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
+      <c r="B19" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="39"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="38"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
+    <row r="24" spans="1:13" s="109" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="114"/>
+      <c r="D24" s="117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="24" spans="1:13" s="109" customFormat="1" ht="24.7" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="K24" s="114"/>
+      <c r="L24" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="179"/>
-      <c r="D24" s="182" t="s">
+      <c r="M24" s="114"/>
+    </row>
+    <row r="25" spans="1:13" s="109" customFormat="1" ht="15.3" customHeight="1">
+      <c r="A25" s="121"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="178" t="s">
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="179"/>
-      <c r="L24" s="178" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" s="179"/>
-    </row>
-    <row r="25" spans="1:13" s="109" customFormat="1" ht="15.35" customHeight="1">
-      <c r="A25" s="177"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="185" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="185" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="187"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="181"/>
-    </row>
-    <row r="26" spans="1:13" s="109" customFormat="1" ht="63.35" customHeight="1">
+      <c r="I25" s="126"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+    </row>
+    <row r="26" spans="1:13" s="109" customFormat="1" ht="63.3" customHeight="1">
       <c r="A26" s="111">
         <v>1</v>
       </c>
-      <c r="B26" s="182" t="s">
+      <c r="B26" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="118"/>
+      <c r="D26" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="184"/>
-      <c r="D26" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="178" t="s">
+      <c r="K26" s="114"/>
+      <c r="L26" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="179"/>
-      <c r="L26" s="178" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" s="179"/>
-    </row>
-    <row r="27" spans="1:13" s="109" customFormat="1" ht="26" customHeight="1">
+      <c r="M26" s="114"/>
+    </row>
+    <row r="27" spans="1:13" s="109" customFormat="1" ht="25.95" customHeight="1">
       <c r="A27" s="111">
         <v>2</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="118"/>
+      <c r="D27" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="184"/>
-      <c r="D27" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="182" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="184"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="188"/>
-      <c r="M27" s="189"/>
-    </row>
-    <row r="28" spans="1:13" s="109" customFormat="1" ht="48.7" customHeight="1">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="118"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="116"/>
+    </row>
+    <row r="28" spans="1:13" s="109" customFormat="1" ht="48.75" customHeight="1">
       <c r="A28" s="112">
         <v>3</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="118"/>
+      <c r="J28" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="118"/>
+      <c r="L28" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="182" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="184"/>
-      <c r="J28" s="182" t="s">
-        <v>133</v>
-      </c>
-      <c r="K28" s="184"/>
-      <c r="L28" s="182" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="184"/>
+      <c r="M28" s="118"/>
     </row>
     <row r="29" spans="1:13">
       <c r="L29" s="108"/>
     </row>
-    <row r="53" spans="1:11" ht="20.7">
-      <c r="A53" s="160"/>
-      <c r="B53" s="160"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
-    </row>
-    <row r="56" spans="1:11" ht="13.35">
-      <c r="A56" s="161"/>
-      <c r="B56" s="162"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="162"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="162"/>
-    </row>
-    <row r="57" spans="1:11" ht="13.35">
-      <c r="A57" s="161"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="162"/>
-      <c r="K57" s="162"/>
+    <row r="53" spans="1:11" ht="21">
+      <c r="A53" s="148"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="148"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="149"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="150"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="150"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="149"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="150"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="150"/>
+      <c r="H57" s="150"/>
+      <c r="I57" s="150"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="161"/>
-      <c r="B58" s="161"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="161"/>
-      <c r="G58" s="161"/>
-      <c r="H58" s="161"/>
-      <c r="I58" s="161"/>
-      <c r="J58" s="161"/>
-      <c r="K58" s="161"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="137"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="142"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="142"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="137"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="142"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="142"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="137"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="137"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="142"/>
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="E9:L12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B9:D12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:L21"/>
     <mergeCell ref="A61:K61"/>
@@ -6123,22 +6117,34 @@
     <mergeCell ref="A59:K59"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:L20"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="E9:L12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B9:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="49" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6160,10 +6166,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -6182,7 +6188,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.35" customHeight="1">
+    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.4" customHeight="1">
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
@@ -6201,10 +6207,10 @@
       <c r="H2" s="90"/>
       <c r="I2" s="91"/>
       <c r="J2" s="90" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="53" t="s">
@@ -6213,7 +6219,7 @@
       <c r="N2" s="53"/>
       <c r="O2" s="52"/>
     </row>
-    <row r="3" spans="1:15" ht="107.35">
+    <row r="3" spans="1:15" ht="100.8">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -6224,31 +6230,31 @@
         <v>8</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>6</v>
@@ -6269,7 +6275,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>1</v>
@@ -6300,16 +6306,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.35" customHeight="1">
+    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.4" customHeight="1">
       <c r="A5" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>142</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>1</v>
@@ -6331,7 +6337,7 @@
         <v>12</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="66" t="s">
         <v>0</v>
@@ -6340,16 +6346,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="27.85" customHeight="1">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="27.9" customHeight="1">
       <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>1</v>
@@ -6371,7 +6377,7 @@
         <v>50</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="66" t="s">
         <v>25</v>
@@ -6380,16 +6386,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="30.7">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="28.8">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>138</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>1</v>
@@ -6411,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="66" t="s">
         <v>2</v>
@@ -6466,7 +6472,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>25</v>
@@ -6506,7 +6512,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="74" t="s">
         <v>23</v>
@@ -6546,7 +6552,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="74" t="s">
         <v>21</v>
@@ -6586,7 +6592,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>19</v>
@@ -6626,7 +6632,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>17</v>
@@ -6966,7 +6972,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="13.35">
+    <row r="32" spans="1:15" ht="13.2">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -7003,11 +7009,11 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
@@ -7073,111 +7079,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.85" customHeight="1">
+    <row r="5" spans="1:8" ht="21.9" customHeight="1">
       <c r="A5" s="100">
         <v>1</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.85" customHeight="1">
+    <row r="6" spans="1:8" ht="21.9" customHeight="1">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.85" customHeight="1">
+    <row r="7" spans="1:8" ht="21.9" customHeight="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H7" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.85" customHeight="1">
+    <row r="8" spans="1:8" ht="21.9" customHeight="1">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.85" customHeight="1">
+    <row r="9" spans="1:8" ht="21.9" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="103"/>
       <c r="C9" s="103"/>
@@ -7187,7 +7193,7 @@
       <c r="G9" s="105"/>
       <c r="H9" s="106"/>
     </row>
-    <row r="10" spans="1:8" ht="21.85" customHeight="1">
+    <row r="10" spans="1:8" ht="21.9" customHeight="1">
       <c r="A10" s="102"/>
       <c r="B10" s="103"/>
       <c r="C10" s="103"/>
@@ -7197,7 +7203,7 @@
       <c r="G10" s="105"/>
       <c r="H10" s="106"/>
     </row>
-    <row r="11" spans="1:8" ht="21.85" customHeight="1">
+    <row r="11" spans="1:8" ht="21.9" customHeight="1">
       <c r="A11" s="102"/>
       <c r="B11" s="103"/>
       <c r="C11" s="103"/>
@@ -7207,7 +7213,7 @@
       <c r="G11" s="105"/>
       <c r="H11" s="106"/>
     </row>
-    <row r="12" spans="1:8" ht="21.85" customHeight="1">
+    <row r="12" spans="1:8" ht="21.9" customHeight="1">
       <c r="A12" s="102"/>
       <c r="B12" s="103"/>
       <c r="C12" s="103"/>
@@ -7217,7 +7223,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:8" ht="21.85" customHeight="1">
+    <row r="13" spans="1:8" ht="21.9" customHeight="1">
       <c r="A13" s="102"/>
       <c r="B13" s="103"/>
       <c r="C13" s="103"/>
@@ -7227,7 +7233,7 @@
       <c r="G13" s="105"/>
       <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="18.899999999999999" customHeight="1">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="103"/>
@@ -7237,9 +7243,9 @@
       <c r="G14" s="105"/>
       <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="16" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="17" ht="26.35" customHeight="1"/>
+    <row r="15" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="16" spans="1:8" ht="26.4" customHeight="1"/>
+    <row r="17" ht="26.4" customHeight="1"/>
     <row r="18" ht="31.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>

--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23013" windowHeight="9173" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="141">
   <si>
     <t>NgayDangKy</t>
   </si>
@@ -356,15 +356,6 @@
     <t>Ngày Sinh phải nhỏ hơn ngày hiện tại</t>
   </si>
   <si>
-    <t>Ngày Đăng Ký lớn hơn hoặc bằng ngày hiện tại</t>
-  </si>
-  <si>
-    <t>Không xuất được file word</t>
-  </si>
-  <si>
-    <t>{0}: xuất file bị lỗi</t>
-  </si>
-  <si>
     <t>Không có dữ liều cần tìm kiếm</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Chuyển form xem chi tiết hội viên</t>
   </si>
   <si>
-    <t>Student_Model.cs, AccessDB_DAO.cs</t>
-  </si>
-  <si>
     <t>SearchMember_BLO.cs</t>
   </si>
   <si>
@@ -437,9 +425,6 @@
     <t>SearchCondition.xaml</t>
   </si>
   <si>
-    <t>RegisterNumber</t>
-  </si>
-  <si>
     <t>Xuất File excel</t>
   </si>
   <si>
@@ -468,6 +453,15 @@
   </si>
   <si>
     <t xml:space="preserve">dtpNgayDangKy </t>
+  </si>
+  <si>
+    <t>Student_Model.cs, AccessDB_DAO.cs,SearchMember_DAO</t>
+  </si>
+  <si>
+    <t>Không có nội dung để xuất file</t>
+  </si>
+  <si>
+    <t>Ngày Đăng Ký nhỏ hơn hoặc bằng ngày hiện tại</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1018,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1032,8 +1026,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1363,77 +1360,59 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1441,6 +1420,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1450,9 +1492,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1461,9 +1500,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1482,120 +1518,85 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
     <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1636,7 +1637,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="9441180" cy="480060"/>
+          <a:ext cx="10430933" cy="476673"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="749" cy="51"/>
         </a:xfrm>
@@ -2432,7 +2433,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22739" y="82126"/>
-          <a:ext cx="12242223" cy="530176"/>
+          <a:ext cx="13571490" cy="530176"/>
           <a:chOff x="5" y="2"/>
           <a:chExt cx="1216" cy="54"/>
         </a:xfrm>
@@ -3059,9 +3060,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:colOff>59267</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1055417" cy="781240"/>
     <xdr:sp macro="" textlink="">
@@ -3071,7 +3072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8500533" y="5655733"/>
+          <a:off x="8559800" y="5613400"/>
           <a:ext cx="1055417" cy="781240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3880,7 +3881,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="15240" y="7620"/>
-          <a:ext cx="10347960" cy="495300"/>
+          <a:ext cx="11821160" cy="495300"/>
           <a:chOff x="2" y="1"/>
           <a:chExt cx="1152" cy="52"/>
         </a:xfrm>
@@ -4727,14 +4728,14 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="3.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.9" customHeight="1"/>
+    <row r="1" ht="39.85" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4751,11 +4752,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="F2" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
@@ -4775,7 +4776,7 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="56.4" customHeight="1">
+    <row r="1" spans="1:13" ht="56.35" customHeight="1">
       <c r="F1" s="56"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
@@ -4826,7 +4827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A14" si="0">ROW()-2</f>
         <v>1</v>
@@ -4865,10 +4866,10 @@
         <v>28</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="23.4" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23.35" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4880,7 +4881,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E4" s="67">
         <v>9</v>
@@ -4892,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>1</v>
@@ -4907,7 +4908,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
@@ -4949,7 +4950,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4964,7 +4965,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E6" s="67">
         <v>9</v>
@@ -4976,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>1</v>
@@ -4991,10 +4992,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.350000000000001" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5246,7 +5247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="22.8" customHeight="1">
+    <row r="13" spans="1:13" ht="22.85" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5288,7 +5289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.75" customHeight="1">
+    <row r="14" spans="1:13" ht="27.85" customHeight="1">
       <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5433,7 +5434,7 @@
       <c r="I33" s="23"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="13.2">
+    <row r="34" spans="1:13" ht="13.35">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -5448,7 +5449,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" ht="13.2">
+    <row r="35" spans="1:13" ht="13.35">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -5463,7 +5464,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" ht="13.2">
+    <row r="36" spans="1:13" ht="13.35">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -5478,7 +5479,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:13" ht="13.2">
+    <row r="37" spans="1:13" ht="13.35">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -5493,7 +5494,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="1:13" ht="13.2">
+    <row r="38" spans="1:13" ht="13.35">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5508,7 +5509,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
     </row>
-    <row r="39" spans="1:13" ht="13.2">
+    <row r="39" spans="1:13" ht="13.35">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -5538,11 +5539,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" activeCellId="1" sqref="B17:D18 B19:D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="37"/>
     <col min="2" max="2" width="10.77734375" style="37" customWidth="1"/>
@@ -5561,530 +5562,574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166" t="s">
+      <c r="E1" s="126"/>
+      <c r="F1" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="166"/>
-      <c r="H1" s="167" t="s">
+      <c r="G1" s="126"/>
+      <c r="H1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="170" t="s">
+      <c r="B2" s="133"/>
+      <c r="C2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="171" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="179" t="s">
+      <c r="G2" s="133"/>
+      <c r="H2" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="1:12" ht="42" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="143" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="178"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="146" t="s">
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.35">
+      <c r="A6" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147" t="s">
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="154">
+      <c r="A9" s="114">
         <v>1</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="157" t="s">
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="155"/>
-      <c r="B10" s="184"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="162"/>
-    </row>
-    <row r="11" spans="1:12" ht="8.4" customHeight="1">
-      <c r="A11" s="155"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="162"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
+    </row>
+    <row r="11" spans="1:12" ht="8.35" customHeight="1">
+      <c r="A11" s="115"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="122"/>
     </row>
     <row r="12" spans="1:12" hidden="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
     </row>
     <row r="13" spans="1:12">
       <c r="G13" s="80"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="146" t="s">
+    <row r="14" spans="1:12" ht="13.35">
+      <c r="A14" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134" t="s">
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.799999999999997" customHeight="1">
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+    </row>
+    <row r="17" spans="1:13" ht="40.85" customHeight="1">
       <c r="A17" s="41">
         <v>1</v>
       </c>
-      <c r="B17" s="131" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132" t="s">
+      <c r="B17" s="171" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-    </row>
-    <row r="18" spans="1:13" ht="42.9" customHeight="1">
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="173"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.85" customHeight="1">
       <c r="A18" s="41">
         <v>2</v>
       </c>
-      <c r="B18" s="135" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="136" t="s">
+      <c r="B18" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="138"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="132"/>
     </row>
     <row r="19" spans="1:13" ht="27" customHeight="1">
       <c r="A19" s="40">
         <v>3</v>
       </c>
-      <c r="B19" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129" t="s">
+      <c r="B19" s="167" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="39"/>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="38"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
+    <row r="24" spans="1:13" s="109" customFormat="1" ht="24.85" customHeight="1">
+      <c r="A24" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="180"/>
+      <c r="D24" s="183" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="24" spans="1:13" s="109" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A24" s="120" t="s">
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="K24" s="180"/>
+      <c r="L24" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="114"/>
-      <c r="D24" s="117" t="s">
+      <c r="M24" s="180"/>
+    </row>
+    <row r="25" spans="1:13" s="109" customFormat="1" ht="15.35" customHeight="1">
+      <c r="A25" s="178"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="113" t="s">
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="114"/>
-      <c r="L24" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="M24" s="114"/>
-    </row>
-    <row r="25" spans="1:13" s="109" customFormat="1" ht="15.3" customHeight="1">
-      <c r="A25" s="121"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="126"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="123"/>
-    </row>
-    <row r="26" spans="1:13" s="109" customFormat="1" ht="63.3" customHeight="1">
+      <c r="I25" s="188"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="182"/>
+    </row>
+    <row r="26" spans="1:13" s="109" customFormat="1" ht="63.35" customHeight="1">
       <c r="A26" s="111">
         <v>1</v>
       </c>
-      <c r="B26" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="117" t="s">
+      <c r="B26" s="183" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="185"/>
+      <c r="D26" s="183" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="179" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="180"/>
+      <c r="L26" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="113" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="114"/>
-      <c r="L26" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" s="114"/>
-    </row>
-    <row r="27" spans="1:13" s="109" customFormat="1" ht="25.95" customHeight="1">
+      <c r="M26" s="180"/>
+    </row>
+    <row r="27" spans="1:13" s="109" customFormat="1" ht="26" customHeight="1">
       <c r="A27" s="111">
         <v>2</v>
       </c>
-      <c r="B27" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="118"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
-    </row>
-    <row r="28" spans="1:13" s="109" customFormat="1" ht="48.75" customHeight="1">
+      <c r="B27" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="185"/>
+      <c r="D27" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="183" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="185"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="190"/>
+    </row>
+    <row r="28" spans="1:13" s="109" customFormat="1" ht="48.85" customHeight="1">
       <c r="A28" s="112">
         <v>3</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="185"/>
+      <c r="D28" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="185"/>
+      <c r="J28" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="118"/>
-      <c r="J28" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" s="118"/>
-      <c r="L28" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="M28" s="118"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="183" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="185"/>
     </row>
     <row r="29" spans="1:13">
       <c r="L29" s="108"/>
     </row>
-    <row r="53" spans="1:11" ht="21">
-      <c r="A53" s="148"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148"/>
-      <c r="J53" s="148"/>
-      <c r="K53" s="148"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="149"/>
-      <c r="B56" s="150"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="149"/>
-      <c r="B57" s="150"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
+    <row r="53" spans="1:11" ht="20.7">
+      <c r="A53" s="161"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+      <c r="H53" s="161"/>
+      <c r="I53" s="161"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.35">
+      <c r="A56" s="162"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="163"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="163"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.35">
+      <c r="A57" s="162"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="163"/>
+      <c r="K57" s="163"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="149"/>
+      <c r="A58" s="162"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="162"/>
+      <c r="E58" s="162"/>
+      <c r="F58" s="162"/>
+      <c r="G58" s="162"/>
+      <c r="H58" s="162"/>
+      <c r="I58" s="162"/>
+      <c r="J58" s="162"/>
+      <c r="K58" s="162"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="142"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
-      <c r="K59" s="142"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="138"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="142"/>
-      <c r="B60" s="142"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="138"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="142"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="142"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="138"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="142"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="142"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:L20"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="E9:L12"/>
     <mergeCell ref="D1:E1"/>
@@ -6101,50 +6146,6 @@
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B9:D12"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="L24:M25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="49" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6169,7 +6170,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
@@ -6188,7 +6189,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.4" customHeight="1">
+    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.35" customHeight="1">
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
@@ -6219,7 +6220,7 @@
       <c r="N2" s="53"/>
       <c r="O2" s="52"/>
     </row>
-    <row r="3" spans="1:15" ht="100.8">
+    <row r="3" spans="1:15" ht="107.35">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.4" customHeight="1">
+    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.35" customHeight="1">
       <c r="A5" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6315,7 +6316,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>1</v>
@@ -6346,7 +6347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="27.9" customHeight="1">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="27.85" customHeight="1">
       <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6386,7 +6387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="64" customFormat="1" ht="28.8">
+    <row r="7" spans="1:15" s="64" customFormat="1" ht="30.7">
       <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6395,7 +6396,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>1</v>
@@ -6972,7 +6973,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="13.2">
+    <row r="32" spans="1:15" ht="13.35">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -7009,18 +7010,18 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -7079,7 +7080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.9" customHeight="1">
+    <row r="5" spans="1:8" ht="21.85" customHeight="1">
       <c r="A5" s="100">
         <v>1</v>
       </c>
@@ -7090,22 +7091,22 @@
         <v>33</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H5" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.9" customHeight="1">
+    <row r="6" spans="1:8" ht="21.85" customHeight="1">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -7122,16 +7123,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H6" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.9" customHeight="1">
+    <row r="7" spans="1:8" ht="21.85" customHeight="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -7142,22 +7143,22 @@
         <v>99</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>107</v>
+        <v>131</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>139</v>
       </c>
       <c r="H7" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.9" customHeight="1">
+    <row r="8" spans="1:8" ht="21.85" customHeight="1">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -7168,22 +7169,22 @@
         <v>98</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G8" s="88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.9" customHeight="1">
+    <row r="9" spans="1:8" ht="21.85" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="103"/>
       <c r="C9" s="103"/>
@@ -7193,7 +7194,7 @@
       <c r="G9" s="105"/>
       <c r="H9" s="106"/>
     </row>
-    <row r="10" spans="1:8" ht="21.9" customHeight="1">
+    <row r="10" spans="1:8" ht="21.85" customHeight="1">
       <c r="A10" s="102"/>
       <c r="B10" s="103"/>
       <c r="C10" s="103"/>
@@ -7203,7 +7204,7 @@
       <c r="G10" s="105"/>
       <c r="H10" s="106"/>
     </row>
-    <row r="11" spans="1:8" ht="21.9" customHeight="1">
+    <row r="11" spans="1:8" ht="21.85" customHeight="1">
       <c r="A11" s="102"/>
       <c r="B11" s="103"/>
       <c r="C11" s="103"/>
@@ -7213,7 +7214,7 @@
       <c r="G11" s="105"/>
       <c r="H11" s="106"/>
     </row>
-    <row r="12" spans="1:8" ht="21.9" customHeight="1">
+    <row r="12" spans="1:8" ht="21.85" customHeight="1">
       <c r="A12" s="102"/>
       <c r="B12" s="103"/>
       <c r="C12" s="103"/>
@@ -7223,7 +7224,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:8" ht="21.9" customHeight="1">
+    <row r="13" spans="1:8" ht="21.85" customHeight="1">
       <c r="A13" s="102"/>
       <c r="B13" s="103"/>
       <c r="C13" s="103"/>
@@ -7233,7 +7234,7 @@
       <c r="G13" s="105"/>
       <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="1:8" ht="18.899999999999999" customHeight="1">
+    <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="103"/>
@@ -7243,13 +7244,13 @@
       <c r="G14" s="105"/>
       <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="16" spans="1:8" ht="26.4" customHeight="1"/>
-    <row r="17" ht="26.4" customHeight="1"/>
+    <row r="15" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="16" spans="1:8" ht="26.35" customHeight="1"/>
+    <row r="17" ht="26.35" customHeight="1"/>
     <row r="18" ht="31.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;9Copyright(c) 2008 HJ All rights reserved.&amp;R5-&amp;P</oddFooter>
   </headerFooter>

--- a/design-document/SearchConditional.xlsx
+++ b/design-document/SearchConditional.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23013" windowHeight="9173" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20493" windowHeight="7307"/>
   </bookViews>
   <sheets>
     <sheet name="01_Screen Layout" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="05_Check Conditional" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$P$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'01_Screen Layout'!$A$1:$N$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'02_Item definition'!$A$1:$N$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'03_Definition'!$A$1:$V$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'04_Check Conditional_Monadic'!$A$1:$P$32</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="140">
   <si>
     <t>NgayDangKy</t>
   </si>
@@ -359,9 +359,6 @@
     <t>Không có dữ liều cần tìm kiếm</t>
   </si>
   <si>
-    <t>{0}: tìm kiếm</t>
-  </si>
-  <si>
     <t>{0}: ngày đăng ký</t>
   </si>
   <si>
@@ -458,10 +455,10 @@
     <t>Student_Model.cs, AccessDB_DAO.cs,SearchMember_DAO</t>
   </si>
   <si>
-    <t>Không có nội dung để xuất file</t>
-  </si>
-  <si>
     <t>Ngày Đăng Ký nhỏ hơn hoặc bằng ngày hiện tại</t>
+  </si>
+  <si>
+    <t>Xuất file có lỗi hay không.</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1634,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="22860" y="22860"/>
-          <a:ext cx="10430933" cy="476673"/>
+          <a:ext cx="9121140" cy="485140"/>
           <a:chOff x="3" y="2"/>
           <a:chExt cx="749" cy="51"/>
         </a:xfrm>
@@ -2288,61 +2285,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>49804</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>574740</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99607</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="737098" y="796863"/>
-          <a:ext cx="7009407" cy="5378823"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2403,6 +2345,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179661</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="677333"/>
+          <a:ext cx="8324594" cy="5782733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4722,20 +4702,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="O1:P1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="3.88671875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="8.109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.85" customHeight="1"/>
+    <row r="1" ht="40" customHeight="1"/>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -4761,22 +4744,22 @@
     <col min="1" max="1" width="3.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="20" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="20" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="55" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="20" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="20" customWidth="1"/>
     <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="20" customWidth="1"/>
     <col min="12" max="12" width="8.44140625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="20" customWidth="1"/>
     <col min="14" max="14" width="22.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.109375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="56.35" customHeight="1">
+    <row r="1" spans="1:13" ht="56.5" customHeight="1">
       <c r="F1" s="56"/>
       <c r="G1" s="56"/>
       <c r="H1" s="56"/>
@@ -4827,7 +4810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.350000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="17.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A14" si="0">ROW()-2</f>
         <v>1</v>
@@ -4866,10 +4849,10 @@
         <v>28</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="23.35" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="23.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4881,7 +4864,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="67">
         <v>9</v>
@@ -4893,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>1</v>
@@ -4908,7 +4891,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
@@ -4950,7 +4933,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4965,7 +4948,7 @@
         <v>80</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="67">
         <v>9</v>
@@ -4977,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>1</v>
@@ -4992,10 +4975,10 @@
         <v>28</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.350000000000001" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5289,7 +5272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.85" customHeight="1">
+    <row r="14" spans="1:13" ht="28" customHeight="1">
       <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5539,15 +5522,15 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="37"/>
-    <col min="2" max="2" width="10.77734375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="37"/>
     <col min="5" max="5" width="12.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="37"/>
@@ -5556,7 +5539,7 @@
     <col min="11" max="11" width="12.6640625" style="37" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="37"/>
     <col min="13" max="13" width="18.33203125" style="37" customWidth="1"/>
-    <col min="14" max="14" width="0.21875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="0.33203125" style="37" customWidth="1"/>
     <col min="15" max="22" width="8.88671875" style="37" hidden="1" customWidth="1"/>
     <col min="23" max="16384" width="8.88671875" style="37"/>
   </cols>
@@ -5706,7 +5689,7 @@
       <c r="K10" s="121"/>
       <c r="L10" s="122"/>
     </row>
-    <row r="11" spans="1:12" ht="8.35" customHeight="1">
+    <row r="11" spans="1:12" ht="8.5" customHeight="1">
       <c r="A11" s="115"/>
       <c r="B11" s="148"/>
       <c r="C11" s="149"/>
@@ -5769,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="171" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="171"/>
       <c r="D17" s="171"/>
@@ -5784,12 +5767,12 @@
       <c r="K17" s="173"/>
       <c r="L17" s="173"/>
     </row>
-    <row r="18" spans="1:13" ht="42.85" customHeight="1">
+    <row r="18" spans="1:13" ht="43" customHeight="1">
       <c r="A18" s="41">
         <v>2</v>
       </c>
       <c r="B18" s="175" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="175"/>
       <c r="D18" s="175"/>
@@ -5809,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="168"/>
       <c r="D19" s="168"/>
@@ -5854,20 +5837,20 @@
     </row>
     <row r="22" spans="1:13" s="109" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
+    <row r="24" spans="1:13" s="109" customFormat="1" ht="25" customHeight="1">
+      <c r="A24" s="177" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="109" customFormat="1" ht="25.5" customHeight="1"/>
-    <row r="24" spans="1:13" s="109" customFormat="1" ht="24.85" customHeight="1">
-      <c r="A24" s="177" t="s">
+      <c r="B24" s="179" t="s">
         <v>113</v>
-      </c>
-      <c r="B24" s="179" t="s">
-        <v>114</v>
       </c>
       <c r="C24" s="180"/>
       <c r="D24" s="183" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="184"/>
@@ -5875,11 +5858,11 @@
       <c r="H24" s="184"/>
       <c r="I24" s="185"/>
       <c r="J24" s="179" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K24" s="180"/>
       <c r="L24" s="179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M24" s="180"/>
     </row>
@@ -5888,13 +5871,13 @@
       <c r="B25" s="181"/>
       <c r="C25" s="182"/>
       <c r="D25" s="186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="187"/>
       <c r="F25" s="187"/>
       <c r="G25" s="188"/>
       <c r="H25" s="186" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I25" s="188"/>
       <c r="J25" s="181"/>
@@ -5907,11 +5890,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="185"/>
       <c r="D26" s="183" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="184"/>
       <c r="F26" s="184"/>
@@ -5919,20 +5902,20 @@
       <c r="H26" s="183"/>
       <c r="I26" s="185"/>
       <c r="J26" s="179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K26" s="180"/>
       <c r="L26" s="179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M26" s="180"/>
     </row>
-    <row r="27" spans="1:13" s="109" customFormat="1" ht="26" customHeight="1">
+    <row r="27" spans="1:13" s="109" customFormat="1" ht="26.2" customHeight="1">
       <c r="A27" s="111">
         <v>2</v>
       </c>
       <c r="B27" s="183" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="185"/>
       <c r="D27" s="183" t="s">
@@ -5942,7 +5925,7 @@
       <c r="F27" s="184"/>
       <c r="G27" s="185"/>
       <c r="H27" s="183" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I27" s="185"/>
       <c r="J27" s="189"/>
@@ -5950,12 +5933,12 @@
       <c r="L27" s="189"/>
       <c r="M27" s="190"/>
     </row>
-    <row r="28" spans="1:13" s="109" customFormat="1" ht="48.85" customHeight="1">
+    <row r="28" spans="1:13" s="109" customFormat="1" ht="49" customHeight="1">
       <c r="A28" s="112">
         <v>3</v>
       </c>
       <c r="B28" s="183" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="185"/>
       <c r="D28" s="183" t="s">
@@ -5969,11 +5952,11 @@
       </c>
       <c r="I28" s="185"/>
       <c r="J28" s="183" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="185"/>
       <c r="L28" s="183" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M28" s="185"/>
     </row>
@@ -6175,7 +6158,7 @@
     <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="6.109375" style="44" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="44" hidden="1" customWidth="1"/>
@@ -6189,7 +6172,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.35" customHeight="1">
+    <row r="1" spans="1:15" s="57" customFormat="1" ht="47.5" customHeight="1">
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
@@ -6307,7 +6290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.35" customHeight="1">
+    <row r="5" spans="1:15" s="64" customFormat="1" ht="41.5" customHeight="1">
       <c r="A5" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6316,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>1</v>
@@ -6347,7 +6330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="64" customFormat="1" ht="27.85" customHeight="1">
+    <row r="6" spans="1:15" s="64" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6396,7 +6379,7 @@
         <v>93</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>1</v>
@@ -7010,8 +6993,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.35"/>
@@ -7080,7 +7063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.85" customHeight="1">
+    <row r="5" spans="1:8" ht="22" customHeight="1">
       <c r="A5" s="100">
         <v>1</v>
       </c>
@@ -7091,22 +7074,22 @@
         <v>33</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.85" customHeight="1">
+    <row r="6" spans="1:8" ht="22" customHeight="1">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -7123,16 +7106,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.85" customHeight="1">
+    <row r="7" spans="1:8" ht="22" customHeight="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -7143,22 +7126,20 @@
         <v>99</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E7" s="87" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>139</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G7" s="113"/>
       <c r="H7" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.85" customHeight="1">
+    <row r="8" spans="1:8" ht="22" customHeight="1">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -7175,16 +7156,14 @@
         <v>1</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>106</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G8" s="88"/>
       <c r="H8" s="85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.85" customHeight="1">
+    <row r="9" spans="1:8" ht="22" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="103"/>
       <c r="C9" s="103"/>
@@ -7194,7 +7173,7 @@
       <c r="G9" s="105"/>
       <c r="H9" s="106"/>
     </row>
-    <row r="10" spans="1:8" ht="21.85" customHeight="1">
+    <row r="10" spans="1:8" ht="22" customHeight="1">
       <c r="A10" s="102"/>
       <c r="B10" s="103"/>
       <c r="C10" s="103"/>
@@ -7204,7 +7183,7 @@
       <c r="G10" s="105"/>
       <c r="H10" s="106"/>
     </row>
-    <row r="11" spans="1:8" ht="21.85" customHeight="1">
+    <row r="11" spans="1:8" ht="22" customHeight="1">
       <c r="A11" s="102"/>
       <c r="B11" s="103"/>
       <c r="C11" s="103"/>
@@ -7214,7 +7193,7 @@
       <c r="G11" s="105"/>
       <c r="H11" s="106"/>
     </row>
-    <row r="12" spans="1:8" ht="21.85" customHeight="1">
+    <row r="12" spans="1:8" ht="22" customHeight="1">
       <c r="A12" s="102"/>
       <c r="B12" s="103"/>
       <c r="C12" s="103"/>
@@ -7224,7 +7203,7 @@
       <c r="G12" s="105"/>
       <c r="H12" s="106"/>
     </row>
-    <row r="13" spans="1:8" ht="21.85" customHeight="1">
+    <row r="13" spans="1:8" ht="22" customHeight="1">
       <c r="A13" s="102"/>
       <c r="B13" s="103"/>
       <c r="C13" s="103"/>
@@ -7234,7 +7213,7 @@
       <c r="G13" s="105"/>
       <c r="H13" s="106"/>
     </row>
-    <row r="14" spans="1:8" ht="18.850000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="19" customHeight="1">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="103"/>
@@ -7244,9 +7223,9 @@
       <c r="G14" s="105"/>
       <c r="H14" s="106"/>
     </row>
-    <row r="15" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="16" spans="1:8" ht="26.35" customHeight="1"/>
-    <row r="17" ht="26.35" customHeight="1"/>
+    <row r="15" spans="1:8" ht="26.5" customHeight="1"/>
+    <row r="16" spans="1:8" ht="26.5" customHeight="1"/>
+    <row r="17" ht="26.5" customHeight="1"/>
     <row r="18" ht="31.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.34" right="0.21" top="0.36" bottom="0.44" header="0.56000000000000005" footer="0.28999999999999998"/>
